--- a/meta/assumption.xlsx
+++ b/meta/assumption.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Dropbox\Data Explorer 2.0\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="12588"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="assumption" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">assumption!$A$1:$J$1373</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="218">
   <si>
     <t>group</t>
   </si>
@@ -388,6 +388,294 @@
   </si>
   <si>
     <t>sn</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Occupied Palestinian Territory</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Republic of Moldova</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -1221,16 +1509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
         <v>118</v>
@@ -1294,7 +1580,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1612,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1644,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1381,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
         <v>118</v>
@@ -1390,7 +1676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1413,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
         <v>118</v>
@@ -1422,7 +1708,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
         <v>118</v>
@@ -1454,7 +1740,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
         <v>118</v>
@@ -1486,7 +1772,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1804,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1836,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1868,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1900,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="I13" t="s">
         <v>118</v>
@@ -1646,7 +1932,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1964,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1701,7 +1987,7 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>118</v>
@@ -1710,7 +1996,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
         <v>118</v>
@@ -1742,7 +2028,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +2060,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +2092,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s">
         <v>118</v>
@@ -1838,7 +2124,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
         <v>118</v>
@@ -1870,7 +2156,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
         <v>118</v>
@@ -1902,7 +2188,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1925,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
         <v>118</v>
@@ -1934,7 +2220,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1957,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="I23" t="s">
         <v>118</v>
@@ -1966,7 +2252,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
         <v>118</v>
@@ -1998,7 +2284,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="I25" t="s">
         <v>118</v>
@@ -2030,7 +2316,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
         <v>118</v>
@@ -2062,7 +2348,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2085,7 +2371,7 @@
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I27" t="s">
         <v>118</v>
@@ -2094,7 +2380,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2412,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2435,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
         <v>118</v>
@@ -2158,7 +2444,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2181,7 +2467,7 @@
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I30" t="s">
         <v>118</v>
@@ -2190,7 +2476,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +2508,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2245,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="I32" t="s">
         <v>118</v>
@@ -2254,7 +2540,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="I33" t="s">
         <v>118</v>
@@ -2286,7 +2572,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="I34" t="s">
         <v>118</v>
@@ -2318,7 +2604,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2350,7 +2636,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2659,7 @@
         <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I36" t="s">
         <v>118</v>
@@ -2382,7 +2668,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="I37" t="s">
         <v>118</v>
@@ -2414,7 +2700,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2437,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
         <v>118</v>
@@ -2446,7 +2732,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2478,7 +2764,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2501,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="I40" t="s">
         <v>118</v>
@@ -2510,7 +2796,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2828,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2574,7 +2860,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2606,7 +2892,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2638,7 +2924,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2670,7 +2956,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2693,7 +2979,7 @@
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="I46" t="s">
         <v>118</v>
@@ -2702,7 +2988,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2734,7 +3020,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2766,7 +3052,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="I49" t="s">
         <v>118</v>
@@ -2798,7 +3084,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2821,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="I50" t="s">
         <v>118</v>
@@ -2830,7 +3116,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2853,7 +3139,7 @@
         <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="I51" t="s">
         <v>118</v>
@@ -2862,7 +3148,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="I52" t="s">
         <v>118</v>
@@ -2894,7 +3180,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2926,7 +3212,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2949,7 +3235,7 @@
         <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="I54" t="s">
         <v>118</v>
@@ -2958,7 +3244,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +3276,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3308,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3331,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="I57" t="s">
         <v>118</v>
@@ -3054,7 +3340,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3077,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="I58" t="s">
         <v>118</v>
@@ -3086,7 +3372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3109,7 +3395,7 @@
         <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="I59" t="s">
         <v>118</v>
@@ -3118,7 +3404,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3436,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +3459,7 @@
         <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="I61" t="s">
         <v>118</v>
@@ -3182,7 +3468,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3214,7 +3500,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3237,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="I63" t="s">
         <v>118</v>
@@ -3246,7 +3532,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3278,7 +3564,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3596,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3333,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="I66" t="s">
         <v>118</v>
@@ -3342,7 +3628,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3365,7 +3651,7 @@
         <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I67" t="s">
         <v>118</v>
@@ -3374,7 +3660,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3406,7 +3692,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +3715,7 @@
         <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="I69" t="s">
         <v>118</v>
@@ -3438,7 +3724,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3470,7 +3756,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3502,7 +3788,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3534,7 +3820,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3566,7 +3852,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3598,7 +3884,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3621,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="H75" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="I75" t="s">
         <v>118</v>
@@ -3630,7 +3916,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3653,7 +3939,7 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="I76" t="s">
         <v>118</v>
@@ -3662,7 +3948,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3694,7 +3980,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3717,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I78" t="s">
         <v>118</v>
@@ -3726,7 +4012,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3749,7 +4035,7 @@
         <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="I79" t="s">
         <v>118</v>
@@ -3758,7 +4044,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3790,7 +4076,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3822,7 +4108,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -3845,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="I82" t="s">
         <v>118</v>
@@ -3854,7 +4140,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -3886,7 +4172,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +4195,7 @@
         <v>10</v>
       </c>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="I84" t="s">
         <v>118</v>
@@ -3918,7 +4204,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +4236,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -3973,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="I86" t="s">
         <v>118</v>
@@ -3982,7 +4268,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -4005,7 +4291,7 @@
         <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="I87" t="s">
         <v>118</v>
@@ -4014,7 +4300,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -4046,7 +4332,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -4078,7 +4364,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +4396,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4419,7 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I91" t="s">
         <v>118</v>
@@ -4142,7 +4428,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -4174,7 +4460,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -4197,7 +4483,7 @@
         <v>10</v>
       </c>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="I93" t="s">
         <v>118</v>
@@ -4206,7 +4492,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -4229,7 +4515,7 @@
         <v>10</v>
       </c>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="I94" t="s">
         <v>118</v>
@@ -4238,7 +4524,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -4270,7 +4556,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -4293,7 +4579,7 @@
         <v>10</v>
       </c>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="I96" t="s">
         <v>118</v>
@@ -4302,7 +4588,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4334,7 +4620,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4357,7 +4643,7 @@
         <v>10</v>
       </c>
       <c r="H98" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="I98" t="s">
         <v>118</v>
@@ -4366,7 +4652,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -4389,7 +4675,7 @@
         <v>10</v>
       </c>
       <c r="H99" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I99" t="s">
         <v>118</v>
@@ -4398,7 +4684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4421,7 +4707,7 @@
         <v>10</v>
       </c>
       <c r="H100" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="I100" t="s">
         <v>118</v>
@@ -4430,7 +4716,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -4462,7 +4748,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -4485,7 +4771,7 @@
         <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="I102" t="s">
         <v>118</v>
@@ -4494,7 +4780,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -4517,7 +4803,7 @@
         <v>10</v>
       </c>
       <c r="H103" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="I103" t="s">
         <v>118</v>
@@ -4526,7 +4812,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -4549,7 +4835,7 @@
         <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="I104" t="s">
         <v>118</v>
@@ -4558,7 +4844,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -4590,7 +4876,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4622,7 +4908,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -4654,7 +4940,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -4677,7 +4963,7 @@
         <v>10</v>
       </c>
       <c r="H108" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="I108" t="s">
         <v>118</v>
@@ -4686,7 +4972,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -4718,7 +5004,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -4750,7 +5036,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -4782,7 +5068,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -4814,7 +5100,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -4837,7 +5123,7 @@
         <v>10</v>
       </c>
       <c r="H113" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="I113" t="s">
         <v>118</v>
@@ -4846,7 +5132,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -4869,7 +5155,7 @@
         <v>10</v>
       </c>
       <c r="H114" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="I114" t="s">
         <v>118</v>
@@ -4878,7 +5164,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4901,7 +5187,7 @@
         <v>10</v>
       </c>
       <c r="H115" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="I115" t="s">
         <v>118</v>
@@ -4910,7 +5196,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -4933,7 +5219,7 @@
         <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="I116" t="s">
         <v>118</v>
@@ -4942,7 +5228,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -4965,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="H117" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I117" t="s">
         <v>118</v>
@@ -4974,7 +5260,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -5006,7 +5292,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -5029,7 +5315,7 @@
         <v>10</v>
       </c>
       <c r="H119" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="I119" t="s">
         <v>118</v>
@@ -5038,7 +5324,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -5061,7 +5347,7 @@
         <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="I120" t="s">
         <v>118</v>
@@ -5070,7 +5356,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -5102,7 +5388,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -5125,7 +5411,7 @@
         <v>10</v>
       </c>
       <c r="H122" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="I122" t="s">
         <v>118</v>
@@ -5134,7 +5420,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -5157,7 +5443,7 @@
         <v>10</v>
       </c>
       <c r="H123" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I123" t="s">
         <v>118</v>
@@ -5166,7 +5452,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -5198,7 +5484,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -5230,7 +5516,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -5262,7 +5548,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -5294,7 +5580,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -5326,7 +5612,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -5358,7 +5644,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -5381,7 +5667,7 @@
         <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="I130" t="s">
         <v>118</v>
@@ -5390,7 +5676,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -5413,7 +5699,7 @@
         <v>10</v>
       </c>
       <c r="H131" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="I131" t="s">
         <v>118</v>
@@ -5422,7 +5708,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -5445,7 +5731,7 @@
         <v>10</v>
       </c>
       <c r="H132" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="I132" t="s">
         <v>118</v>
@@ -5454,7 +5740,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -5486,7 +5772,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -5509,7 +5795,7 @@
         <v>10</v>
       </c>
       <c r="H134" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="I134" t="s">
         <v>118</v>
@@ -5518,7 +5804,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -5550,7 +5836,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -5573,7 +5859,7 @@
         <v>10</v>
       </c>
       <c r="H136" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="I136" t="s">
         <v>118</v>
@@ -5582,7 +5868,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -5605,7 +5891,7 @@
         <v>10</v>
       </c>
       <c r="H137" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="I137" t="s">
         <v>118</v>
@@ -5614,7 +5900,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -5646,7 +5932,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -5669,7 +5955,7 @@
         <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="I139" t="s">
         <v>118</v>
@@ -5678,7 +5964,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -5701,7 +5987,7 @@
         <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="I140" t="s">
         <v>118</v>
@@ -5710,7 +5996,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -5742,7 +6028,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -5765,7 +6051,7 @@
         <v>10</v>
       </c>
       <c r="H142" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="I142" t="s">
         <v>118</v>
@@ -5774,7 +6060,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -5797,7 +6083,7 @@
         <v>10</v>
       </c>
       <c r="H143" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="I143" t="s">
         <v>118</v>
@@ -5806,7 +6092,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -5829,7 +6115,7 @@
         <v>10</v>
       </c>
       <c r="H144" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="I144" t="s">
         <v>118</v>
@@ -5838,7 +6124,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -5861,7 +6147,7 @@
         <v>10</v>
       </c>
       <c r="H145" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="I145" t="s">
         <v>118</v>
@@ -5870,7 +6156,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -5902,7 +6188,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -5925,7 +6211,7 @@
         <v>10</v>
       </c>
       <c r="H147" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="I147" t="s">
         <v>118</v>
@@ -5934,7 +6220,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -5957,7 +6243,7 @@
         <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="I148" t="s">
         <v>118</v>
@@ -5966,7 +6252,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -5989,7 +6275,7 @@
         <v>10</v>
       </c>
       <c r="H149" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="I149" t="s">
         <v>118</v>
@@ -5998,7 +6284,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -6030,7 +6316,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -6062,7 +6348,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -6085,7 +6371,7 @@
         <v>10</v>
       </c>
       <c r="H152" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I152" t="s">
         <v>118</v>
@@ -6094,7 +6380,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -6117,7 +6403,7 @@
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="I153" t="s">
         <v>118</v>
@@ -6126,7 +6412,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -6158,7 +6444,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -6190,7 +6476,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -6213,7 +6499,7 @@
         <v>10</v>
       </c>
       <c r="H156" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="I156" t="s">
         <v>118</v>
@@ -6222,7 +6508,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -6254,7 +6540,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -6286,7 +6572,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -6318,7 +6604,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -6350,7 +6636,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -6382,7 +6668,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -6414,7 +6700,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -6446,7 +6732,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -6469,7 +6755,7 @@
         <v>10</v>
       </c>
       <c r="H164" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="I164" t="s">
         <v>118</v>
@@ -6478,7 +6764,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -6510,7 +6796,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -6533,7 +6819,7 @@
         <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="I166" t="s">
         <v>118</v>
@@ -6542,7 +6828,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -6565,7 +6851,7 @@
         <v>10</v>
       </c>
       <c r="H167" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="I167" t="s">
         <v>118</v>
@@ -6574,7 +6860,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -6597,7 +6883,7 @@
         <v>10</v>
       </c>
       <c r="H168" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="I168" t="s">
         <v>118</v>
@@ -6606,7 +6892,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -6638,7 +6924,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -6661,7 +6947,7 @@
         <v>10</v>
       </c>
       <c r="H170" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="I170" t="s">
         <v>118</v>
@@ -6670,7 +6956,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -6702,7 +6988,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -6725,7 +7011,7 @@
         <v>10</v>
       </c>
       <c r="H172" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="I172" t="s">
         <v>118</v>
@@ -6734,7 +7020,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -6766,7 +7052,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -6798,7 +7084,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -6821,7 +7107,7 @@
         <v>10</v>
       </c>
       <c r="H175" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I175" t="s">
         <v>118</v>
@@ -6830,7 +7116,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -6853,7 +7139,7 @@
         <v>10</v>
       </c>
       <c r="H176" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="I176" t="s">
         <v>118</v>
@@ -6862,7 +7148,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -6894,7 +7180,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -6917,7 +7203,7 @@
         <v>10</v>
       </c>
       <c r="H178" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="I178" t="s">
         <v>118</v>
@@ -6926,7 +7212,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -6958,7 +7244,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -6981,7 +7267,7 @@
         <v>10</v>
       </c>
       <c r="H180" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="I180" t="s">
         <v>118</v>
@@ -6990,7 +7276,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -7022,7 +7308,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -7054,7 +7340,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -7086,7 +7372,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -7118,7 +7404,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -7150,7 +7436,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -7173,7 +7459,7 @@
         <v>10</v>
       </c>
       <c r="H186" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="I186" t="s">
         <v>118</v>
@@ -7182,7 +7468,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -7214,7 +7500,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -7246,7 +7532,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -7269,7 +7555,7 @@
         <v>10</v>
       </c>
       <c r="H189" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="I189" t="s">
         <v>118</v>
@@ -7278,7 +7564,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -7301,7 +7587,7 @@
         <v>10</v>
       </c>
       <c r="H190" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="I190" t="s">
         <v>118</v>
@@ -7310,7 +7596,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7628,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -7374,7 +7660,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -7397,7 +7683,7 @@
         <v>10</v>
       </c>
       <c r="H193" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="I193" t="s">
         <v>118</v>
@@ -7406,7 +7692,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -7438,7 +7724,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -7470,7 +7756,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -7502,7 +7788,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -7534,7 +7820,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -7557,7 +7843,7 @@
         <v>10</v>
       </c>
       <c r="H198" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I198" t="s">
         <v>117</v>
@@ -7566,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -7598,7 +7884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -7630,7 +7916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -7653,7 +7939,7 @@
         <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I201" t="s">
         <v>117</v>
@@ -7662,7 +7948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -7685,7 +7971,7 @@
         <v>10</v>
       </c>
       <c r="H202" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I202" t="s">
         <v>117</v>
@@ -7694,7 +7980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -7717,7 +8003,7 @@
         <v>10</v>
       </c>
       <c r="H203" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I203" t="s">
         <v>117</v>
@@ -7726,7 +8012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -7749,7 +8035,7 @@
         <v>10</v>
       </c>
       <c r="H204" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I204" t="s">
         <v>117</v>
@@ -7758,7 +8044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -7790,7 +8076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -7822,7 +8108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -7854,7 +8140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -7886,7 +8172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -7909,7 +8195,7 @@
         <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="I209" t="s">
         <v>117</v>
@@ -7918,7 +8204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -7950,7 +8236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -7973,7 +8259,7 @@
         <v>10</v>
       </c>
       <c r="H211" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I211" t="s">
         <v>117</v>
@@ -7982,7 +8268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -8005,7 +8291,7 @@
         <v>10</v>
       </c>
       <c r="H212" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I212" t="s">
         <v>117</v>
@@ -8014,7 +8300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -8046,7 +8332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -8078,7 +8364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -8101,7 +8387,7 @@
         <v>10</v>
       </c>
       <c r="H215" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I215" t="s">
         <v>117</v>
@@ -8110,7 +8396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8133,7 +8419,7 @@
         <v>10</v>
       </c>
       <c r="H216" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I216" t="s">
         <v>117</v>
@@ -8142,7 +8428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -8165,7 +8451,7 @@
         <v>10</v>
       </c>
       <c r="H217" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="I217" t="s">
         <v>117</v>
@@ -8174,7 +8460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -8197,7 +8483,7 @@
         <v>10</v>
       </c>
       <c r="H218" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="I218" t="s">
         <v>117</v>
@@ -8206,7 +8492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -8229,7 +8515,7 @@
         <v>10</v>
       </c>
       <c r="H219" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="I219" t="s">
         <v>117</v>
@@ -8238,7 +8524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -8261,7 +8547,7 @@
         <v>10</v>
       </c>
       <c r="H220" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I220" t="s">
         <v>117</v>
@@ -8270,7 +8556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -8293,7 +8579,7 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="I221" t="s">
         <v>117</v>
@@ -8302,7 +8588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -8325,7 +8611,7 @@
         <v>10</v>
       </c>
       <c r="H222" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="I222" t="s">
         <v>117</v>
@@ -8334,7 +8620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -8357,7 +8643,7 @@
         <v>10</v>
       </c>
       <c r="H223" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I223" t="s">
         <v>117</v>
@@ -8366,7 +8652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -8398,7 +8684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -8421,7 +8707,7 @@
         <v>10</v>
       </c>
       <c r="H225" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="I225" t="s">
         <v>117</v>
@@ -8430,7 +8716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -8453,7 +8739,7 @@
         <v>10</v>
       </c>
       <c r="H226" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I226" t="s">
         <v>117</v>
@@ -8462,7 +8748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -8494,7 +8780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -8517,7 +8803,7 @@
         <v>10</v>
       </c>
       <c r="H228" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="I228" t="s">
         <v>117</v>
@@ -8526,7 +8812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -8549,7 +8835,7 @@
         <v>10</v>
       </c>
       <c r="H229" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="I229" t="s">
         <v>117</v>
@@ -8558,7 +8844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -8581,7 +8867,7 @@
         <v>10</v>
       </c>
       <c r="H230" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="I230" t="s">
         <v>117</v>
@@ -8590,7 +8876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -8622,7 +8908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -8645,7 +8931,7 @@
         <v>10</v>
       </c>
       <c r="H232" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I232" t="s">
         <v>117</v>
@@ -8654,7 +8940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -8677,7 +8963,7 @@
         <v>10</v>
       </c>
       <c r="H233" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="I233" t="s">
         <v>117</v>
@@ -8686,7 +8972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -8709,7 +8995,7 @@
         <v>10</v>
       </c>
       <c r="H234" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="I234" t="s">
         <v>117</v>
@@ -8718,7 +9004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -8750,7 +9036,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -8773,7 +9059,7 @@
         <v>10</v>
       </c>
       <c r="H236" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="I236" t="s">
         <v>117</v>
@@ -8782,7 +9068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -8814,7 +9100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -8846,7 +9132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -8878,7 +9164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -8910,7 +9196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -8942,7 +9228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -8965,7 +9251,7 @@
         <v>10</v>
       </c>
       <c r="H242" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="I242" t="s">
         <v>117</v>
@@ -8974,7 +9260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -9006,7 +9292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -9038,7 +9324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -9061,7 +9347,7 @@
         <v>10</v>
       </c>
       <c r="H245" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="I245" t="s">
         <v>117</v>
@@ -9070,7 +9356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -9093,7 +9379,7 @@
         <v>10</v>
       </c>
       <c r="H246" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="I246" t="s">
         <v>117</v>
@@ -9102,7 +9388,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -9125,7 +9411,7 @@
         <v>10</v>
       </c>
       <c r="H247" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="I247" t="s">
         <v>117</v>
@@ -9134,7 +9420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -9157,7 +9443,7 @@
         <v>10</v>
       </c>
       <c r="H248" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="I248" t="s">
         <v>117</v>
@@ -9166,7 +9452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -9198,7 +9484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -9221,7 +9507,7 @@
         <v>10</v>
       </c>
       <c r="H250" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="I250" t="s">
         <v>117</v>
@@ -9230,7 +9516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -9262,7 +9548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -9294,7 +9580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -9317,7 +9603,7 @@
         <v>10</v>
       </c>
       <c r="H253" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="I253" t="s">
         <v>117</v>
@@ -9326,7 +9612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -9349,7 +9635,7 @@
         <v>10</v>
       </c>
       <c r="H254" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="I254" t="s">
         <v>117</v>
@@ -9358,7 +9644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -9381,7 +9667,7 @@
         <v>10</v>
       </c>
       <c r="H255" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="I255" t="s">
         <v>117</v>
@@ -9390,7 +9676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -9422,7 +9708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -9445,7 +9731,7 @@
         <v>10</v>
       </c>
       <c r="H257" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="I257" t="s">
         <v>117</v>
@@ -9454,7 +9740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -9486,7 +9772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -9509,7 +9795,7 @@
         <v>10</v>
       </c>
       <c r="H259" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="I259" t="s">
         <v>117</v>
@@ -9518,7 +9804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -9550,7 +9836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -9582,7 +9868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -9605,7 +9891,7 @@
         <v>10</v>
       </c>
       <c r="H262" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="I262" t="s">
         <v>117</v>
@@ -9614,7 +9900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -9637,7 +9923,7 @@
         <v>10</v>
       </c>
       <c r="H263" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I263" t="s">
         <v>117</v>
@@ -9646,7 +9932,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -9678,7 +9964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -9701,7 +9987,7 @@
         <v>10</v>
       </c>
       <c r="H265" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="I265" t="s">
         <v>117</v>
@@ -9710,7 +9996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -9742,7 +10028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -9774,7 +10060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -9806,7 +10092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -9838,7 +10124,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -9870,7 +10156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -9893,7 +10179,7 @@
         <v>10</v>
       </c>
       <c r="H271" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="I271" t="s">
         <v>117</v>
@@ -9902,7 +10188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -9925,7 +10211,7 @@
         <v>10</v>
       </c>
       <c r="H272" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="I272" t="s">
         <v>117</v>
@@ -9934,7 +10220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -9966,7 +10252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -9989,7 +10275,7 @@
         <v>10</v>
       </c>
       <c r="H274" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I274" t="s">
         <v>117</v>
@@ -9998,7 +10284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -10021,7 +10307,7 @@
         <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="I275" t="s">
         <v>117</v>
@@ -10030,7 +10316,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -10062,7 +10348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -10094,7 +10380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -10117,7 +10403,7 @@
         <v>10</v>
       </c>
       <c r="H278" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="I278" t="s">
         <v>117</v>
@@ -10126,7 +10412,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -10158,7 +10444,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -10181,7 +10467,7 @@
         <v>10</v>
       </c>
       <c r="H280" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="I280" t="s">
         <v>117</v>
@@ -10190,7 +10476,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -10222,7 +10508,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -10245,7 +10531,7 @@
         <v>10</v>
       </c>
       <c r="H282" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="I282" t="s">
         <v>117</v>
@@ -10254,7 +10540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -10277,7 +10563,7 @@
         <v>10</v>
       </c>
       <c r="H283" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="I283" t="s">
         <v>117</v>
@@ -10286,7 +10572,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -10318,7 +10604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -10350,7 +10636,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -10382,7 +10668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -10405,7 +10691,7 @@
         <v>10</v>
       </c>
       <c r="H287" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I287" t="s">
         <v>117</v>
@@ -10414,7 +10700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -10446,7 +10732,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -10469,7 +10755,7 @@
         <v>10</v>
       </c>
       <c r="H289" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="I289" t="s">
         <v>117</v>
@@ -10478,7 +10764,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -10501,7 +10787,7 @@
         <v>10</v>
       </c>
       <c r="H290" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="I290" t="s">
         <v>117</v>
@@ -10510,7 +10796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -10542,7 +10828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -10565,7 +10851,7 @@
         <v>10</v>
       </c>
       <c r="H292" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="I292" t="s">
         <v>117</v>
@@ -10574,7 +10860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -10606,7 +10892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -10629,7 +10915,7 @@
         <v>10</v>
       </c>
       <c r="H294" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="I294" t="s">
         <v>117</v>
@@ -10638,7 +10924,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -10661,7 +10947,7 @@
         <v>10</v>
       </c>
       <c r="H295" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I295" t="s">
         <v>117</v>
@@ -10670,7 +10956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -10693,7 +10979,7 @@
         <v>10</v>
       </c>
       <c r="H296" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="I296" t="s">
         <v>117</v>
@@ -10702,7 +10988,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -10734,7 +11020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -10757,7 +11043,7 @@
         <v>10</v>
       </c>
       <c r="H298" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="I298" t="s">
         <v>117</v>
@@ -10766,7 +11052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -10789,7 +11075,7 @@
         <v>10</v>
       </c>
       <c r="H299" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="I299" t="s">
         <v>117</v>
@@ -10798,7 +11084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -10821,7 +11107,7 @@
         <v>10</v>
       </c>
       <c r="H300" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="I300" t="s">
         <v>117</v>
@@ -10830,7 +11116,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -10862,7 +11148,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -10894,7 +11180,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -10926,7 +11212,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -10949,7 +11235,7 @@
         <v>10</v>
       </c>
       <c r="H304" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="I304" t="s">
         <v>117</v>
@@ -10958,7 +11244,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -10990,7 +11276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -11022,7 +11308,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -11054,7 +11340,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -11086,7 +11372,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -11109,7 +11395,7 @@
         <v>10</v>
       </c>
       <c r="H309" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="I309" t="s">
         <v>117</v>
@@ -11118,7 +11404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -11141,7 +11427,7 @@
         <v>10</v>
       </c>
       <c r="H310" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="I310" t="s">
         <v>117</v>
@@ -11150,7 +11436,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -11173,7 +11459,7 @@
         <v>10</v>
       </c>
       <c r="H311" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="I311" t="s">
         <v>117</v>
@@ -11182,7 +11468,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -11205,7 +11491,7 @@
         <v>10</v>
       </c>
       <c r="H312" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="I312" t="s">
         <v>117</v>
@@ -11214,7 +11500,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -11237,7 +11523,7 @@
         <v>10</v>
       </c>
       <c r="H313" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I313" t="s">
         <v>117</v>
@@ -11246,7 +11532,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -11278,7 +11564,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -11301,7 +11587,7 @@
         <v>10</v>
       </c>
       <c r="H315" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="I315" t="s">
         <v>117</v>
@@ -11310,7 +11596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -11333,7 +11619,7 @@
         <v>10</v>
       </c>
       <c r="H316" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="I316" t="s">
         <v>117</v>
@@ -11342,7 +11628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -11374,7 +11660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -11397,7 +11683,7 @@
         <v>10</v>
       </c>
       <c r="H318" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="I318" t="s">
         <v>117</v>
@@ -11406,7 +11692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -11429,7 +11715,7 @@
         <v>10</v>
       </c>
       <c r="H319" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I319" t="s">
         <v>117</v>
@@ -11438,7 +11724,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -11470,7 +11756,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -11502,7 +11788,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -11534,7 +11820,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -11566,7 +11852,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -11598,7 +11884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -11630,7 +11916,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -11653,7 +11939,7 @@
         <v>10</v>
       </c>
       <c r="H326" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="I326" t="s">
         <v>117</v>
@@ -11662,7 +11948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -11685,7 +11971,7 @@
         <v>10</v>
       </c>
       <c r="H327" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="I327" t="s">
         <v>117</v>
@@ -11694,7 +11980,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -11717,7 +12003,7 @@
         <v>10</v>
       </c>
       <c r="H328" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="I328" t="s">
         <v>117</v>
@@ -11726,7 +12012,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -11758,7 +12044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -11781,7 +12067,7 @@
         <v>10</v>
       </c>
       <c r="H330" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="I330" t="s">
         <v>117</v>
@@ -11790,7 +12076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -11822,7 +12108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -11845,7 +12131,7 @@
         <v>10</v>
       </c>
       <c r="H332" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="I332" t="s">
         <v>117</v>
@@ -11854,7 +12140,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -11877,7 +12163,7 @@
         <v>10</v>
       </c>
       <c r="H333" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="I333" t="s">
         <v>117</v>
@@ -11886,7 +12172,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -11918,7 +12204,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -11941,7 +12227,7 @@
         <v>10</v>
       </c>
       <c r="H335" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="I335" t="s">
         <v>117</v>
@@ -11950,7 +12236,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -11973,7 +12259,7 @@
         <v>10</v>
       </c>
       <c r="H336" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="I336" t="s">
         <v>117</v>
@@ -11982,7 +12268,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -12014,7 +12300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -12037,7 +12323,7 @@
         <v>10</v>
       </c>
       <c r="H338" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="I338" t="s">
         <v>117</v>
@@ -12046,7 +12332,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -12069,7 +12355,7 @@
         <v>10</v>
       </c>
       <c r="H339" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="I339" t="s">
         <v>117</v>
@@ -12078,7 +12364,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -12101,7 +12387,7 @@
         <v>10</v>
       </c>
       <c r="H340" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="I340" t="s">
         <v>117</v>
@@ -12110,7 +12396,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -12133,7 +12419,7 @@
         <v>10</v>
       </c>
       <c r="H341" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="I341" t="s">
         <v>117</v>
@@ -12142,7 +12428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -12174,7 +12460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -12197,7 +12483,7 @@
         <v>10</v>
       </c>
       <c r="H343" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="I343" t="s">
         <v>117</v>
@@ -12206,7 +12492,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -12229,7 +12515,7 @@
         <v>10</v>
       </c>
       <c r="H344" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="I344" t="s">
         <v>117</v>
@@ -12238,7 +12524,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -12261,7 +12547,7 @@
         <v>10</v>
       </c>
       <c r="H345" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="I345" t="s">
         <v>117</v>
@@ -12270,7 +12556,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -12302,7 +12588,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -12334,7 +12620,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -12357,7 +12643,7 @@
         <v>10</v>
       </c>
       <c r="H348" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I348" t="s">
         <v>117</v>
@@ -12366,7 +12652,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -12389,7 +12675,7 @@
         <v>10</v>
       </c>
       <c r="H349" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="I349" t="s">
         <v>117</v>
@@ -12398,7 +12684,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -12430,7 +12716,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -12462,7 +12748,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -12485,7 +12771,7 @@
         <v>10</v>
       </c>
       <c r="H352" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="I352" t="s">
         <v>117</v>
@@ -12494,7 +12780,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -12526,7 +12812,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -12558,7 +12844,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -12590,7 +12876,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -12622,7 +12908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -12654,7 +12940,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -12686,7 +12972,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -12718,7 +13004,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -12741,7 +13027,7 @@
         <v>10</v>
       </c>
       <c r="H360" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="I360" t="s">
         <v>117</v>
@@ -12750,7 +13036,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -12782,7 +13068,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -12805,7 +13091,7 @@
         <v>10</v>
       </c>
       <c r="H362" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="I362" t="s">
         <v>117</v>
@@ -12814,7 +13100,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>12</v>
       </c>
@@ -12837,7 +13123,7 @@
         <v>10</v>
       </c>
       <c r="H363" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="I363" t="s">
         <v>117</v>
@@ -12846,7 +13132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>12</v>
       </c>
@@ -12869,7 +13155,7 @@
         <v>10</v>
       </c>
       <c r="H364" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="I364" t="s">
         <v>117</v>
@@ -12878,7 +13164,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>12</v>
       </c>
@@ -12910,7 +13196,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>12</v>
       </c>
@@ -12933,7 +13219,7 @@
         <v>10</v>
       </c>
       <c r="H366" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="I366" t="s">
         <v>117</v>
@@ -12942,7 +13228,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -12974,7 +13260,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>12</v>
       </c>
@@ -12997,7 +13283,7 @@
         <v>10</v>
       </c>
       <c r="H368" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="I368" t="s">
         <v>117</v>
@@ -13006,7 +13292,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>12</v>
       </c>
@@ -13038,7 +13324,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>12</v>
       </c>
@@ -13070,7 +13356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>12</v>
       </c>
@@ -13093,7 +13379,7 @@
         <v>10</v>
       </c>
       <c r="H371" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I371" t="s">
         <v>117</v>
@@ -13102,7 +13388,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -13125,7 +13411,7 @@
         <v>10</v>
       </c>
       <c r="H372" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="I372" t="s">
         <v>117</v>
@@ -13134,7 +13420,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -13166,7 +13452,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -13189,7 +13475,7 @@
         <v>10</v>
       </c>
       <c r="H374" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="I374" t="s">
         <v>117</v>
@@ -13198,7 +13484,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -13230,7 +13516,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -13253,7 +13539,7 @@
         <v>10</v>
       </c>
       <c r="H376" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="I376" t="s">
         <v>117</v>
@@ -13262,7 +13548,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -13294,7 +13580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>12</v>
       </c>
@@ -13326,7 +13612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -13358,7 +13644,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>12</v>
       </c>
@@ -13390,7 +13676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -13422,7 +13708,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>12</v>
       </c>
@@ -13445,7 +13731,7 @@
         <v>10</v>
       </c>
       <c r="H382" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="I382" t="s">
         <v>117</v>
@@ -13454,7 +13740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -13486,7 +13772,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -13518,7 +13804,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -13541,7 +13827,7 @@
         <v>10</v>
       </c>
       <c r="H385" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="I385" t="s">
         <v>117</v>
@@ -13550,7 +13836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -13573,7 +13859,7 @@
         <v>10</v>
       </c>
       <c r="H386" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="I386" t="s">
         <v>117</v>
@@ -13582,7 +13868,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -13614,7 +13900,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -13646,7 +13932,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -13669,7 +13955,7 @@
         <v>10</v>
       </c>
       <c r="H389" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="I389" t="s">
         <v>117</v>
@@ -13678,7 +13964,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -13710,7 +13996,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -13742,7 +14028,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -13774,7 +14060,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>12</v>
       </c>
@@ -13806,7 +14092,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -13829,7 +14115,7 @@
         <v>9</v>
       </c>
       <c r="H394" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I394" t="s">
         <v>119</v>
@@ -13838,7 +14124,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -13870,7 +14156,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -13902,7 +14188,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -13925,7 +14211,7 @@
         <v>9</v>
       </c>
       <c r="H397" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I397" t="s">
         <v>119</v>
@@ -13934,7 +14220,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -13957,7 +14243,7 @@
         <v>9</v>
       </c>
       <c r="H398" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I398" t="s">
         <v>119</v>
@@ -13966,7 +14252,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -13989,7 +14275,7 @@
         <v>9</v>
       </c>
       <c r="H399" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I399" t="s">
         <v>119</v>
@@ -13998,7 +14284,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -14021,7 +14307,7 @@
         <v>9</v>
       </c>
       <c r="H400" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I400" t="s">
         <v>119</v>
@@ -14030,7 +14316,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -14062,7 +14348,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -14094,7 +14380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -14126,7 +14412,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -14158,7 +14444,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -14181,7 +14467,7 @@
         <v>9</v>
       </c>
       <c r="H405" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="I405" t="s">
         <v>119</v>
@@ -14190,7 +14476,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -14222,7 +14508,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -14245,7 +14531,7 @@
         <v>9</v>
       </c>
       <c r="H407" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I407" t="s">
         <v>119</v>
@@ -14254,7 +14540,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -14277,7 +14563,7 @@
         <v>9</v>
       </c>
       <c r="H408" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I408" t="s">
         <v>119</v>
@@ -14286,7 +14572,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -14318,7 +14604,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -14350,7 +14636,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -14373,7 +14659,7 @@
         <v>9</v>
       </c>
       <c r="H411" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="I411" t="s">
         <v>119</v>
@@ -14382,7 +14668,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -14405,7 +14691,7 @@
         <v>9</v>
       </c>
       <c r="H412" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I412" t="s">
         <v>119</v>
@@ -14414,7 +14700,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -14437,7 +14723,7 @@
         <v>9</v>
       </c>
       <c r="H413" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="I413" t="s">
         <v>119</v>
@@ -14446,7 +14732,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -14469,7 +14755,7 @@
         <v>9</v>
       </c>
       <c r="H414" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="I414" t="s">
         <v>119</v>
@@ -14478,7 +14764,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>7</v>
       </c>
@@ -14501,7 +14787,7 @@
         <v>9</v>
       </c>
       <c r="H415" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="I415" t="s">
         <v>119</v>
@@ -14510,7 +14796,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -14533,7 +14819,7 @@
         <v>9</v>
       </c>
       <c r="H416" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I416" t="s">
         <v>119</v>
@@ -14542,7 +14828,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -14565,7 +14851,7 @@
         <v>9</v>
       </c>
       <c r="H417" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="I417" t="s">
         <v>119</v>
@@ -14574,7 +14860,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -14597,7 +14883,7 @@
         <v>9</v>
       </c>
       <c r="H418" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="I418" t="s">
         <v>119</v>
@@ -14606,7 +14892,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -14629,7 +14915,7 @@
         <v>9</v>
       </c>
       <c r="H419" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I419" t="s">
         <v>119</v>
@@ -14638,7 +14924,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -14670,7 +14956,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -14693,7 +14979,7 @@
         <v>9</v>
       </c>
       <c r="H421" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="I421" t="s">
         <v>119</v>
@@ -14702,7 +14988,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -14725,7 +15011,7 @@
         <v>9</v>
       </c>
       <c r="H422" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I422" t="s">
         <v>119</v>
@@ -14734,7 +15020,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -14766,7 +15052,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -14789,7 +15075,7 @@
         <v>9</v>
       </c>
       <c r="H424" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="I424" t="s">
         <v>119</v>
@@ -14798,7 +15084,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -14821,7 +15107,7 @@
         <v>9</v>
       </c>
       <c r="H425" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="I425" t="s">
         <v>119</v>
@@ -14830,7 +15116,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14853,7 +15139,7 @@
         <v>9</v>
       </c>
       <c r="H426" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="I426" t="s">
         <v>119</v>
@@ -14862,7 +15148,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -14894,7 +15180,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -14917,7 +15203,7 @@
         <v>9</v>
       </c>
       <c r="H428" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I428" t="s">
         <v>119</v>
@@ -14926,7 +15212,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -14949,7 +15235,7 @@
         <v>9</v>
       </c>
       <c r="H429" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="I429" t="s">
         <v>119</v>
@@ -14958,7 +15244,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -14981,7 +15267,7 @@
         <v>9</v>
       </c>
       <c r="H430" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="I430" t="s">
         <v>119</v>
@@ -14990,7 +15276,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -15022,7 +15308,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -15045,7 +15331,7 @@
         <v>9</v>
       </c>
       <c r="H432" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="I432" t="s">
         <v>119</v>
@@ -15054,7 +15340,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -15086,7 +15372,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -15118,7 +15404,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -15150,7 +15436,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -15182,7 +15468,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -15214,7 +15500,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -15237,7 +15523,7 @@
         <v>9</v>
       </c>
       <c r="H438" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="I438" t="s">
         <v>119</v>
@@ -15246,7 +15532,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -15278,7 +15564,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -15310,7 +15596,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -15333,7 +15619,7 @@
         <v>9</v>
       </c>
       <c r="H441" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="I441" t="s">
         <v>119</v>
@@ -15342,7 +15628,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -15365,7 +15651,7 @@
         <v>9</v>
       </c>
       <c r="H442" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="I442" t="s">
         <v>119</v>
@@ -15374,7 +15660,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -15397,7 +15683,7 @@
         <v>9</v>
       </c>
       <c r="H443" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="I443" t="s">
         <v>119</v>
@@ -15406,7 +15692,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -15429,7 +15715,7 @@
         <v>9</v>
       </c>
       <c r="H444" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="I444" t="s">
         <v>119</v>
@@ -15438,7 +15724,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -15470,7 +15756,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -15493,7 +15779,7 @@
         <v>9</v>
       </c>
       <c r="H446" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="I446" t="s">
         <v>119</v>
@@ -15502,7 +15788,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -15534,7 +15820,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -15566,7 +15852,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -15589,7 +15875,7 @@
         <v>9</v>
       </c>
       <c r="H449" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="I449" t="s">
         <v>119</v>
@@ -15598,7 +15884,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -15621,7 +15907,7 @@
         <v>9</v>
       </c>
       <c r="H450" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="I450" t="s">
         <v>119</v>
@@ -15630,7 +15916,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -15653,7 +15939,7 @@
         <v>9</v>
       </c>
       <c r="H451" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="I451" t="s">
         <v>119</v>
@@ -15662,7 +15948,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -15694,7 +15980,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -15717,7 +16003,7 @@
         <v>9</v>
       </c>
       <c r="H453" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="I453" t="s">
         <v>119</v>
@@ -15726,7 +16012,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -15758,7 +16044,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -15781,7 +16067,7 @@
         <v>9</v>
       </c>
       <c r="H455" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="I455" t="s">
         <v>119</v>
@@ -15790,7 +16076,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -15822,7 +16108,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -15854,7 +16140,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -15877,7 +16163,7 @@
         <v>9</v>
       </c>
       <c r="H458" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="I458" t="s">
         <v>119</v>
@@ -15886,7 +16172,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -15909,7 +16195,7 @@
         <v>9</v>
       </c>
       <c r="H459" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I459" t="s">
         <v>119</v>
@@ -15918,7 +16204,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -15950,7 +16236,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -15973,7 +16259,7 @@
         <v>9</v>
       </c>
       <c r="H461" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="I461" t="s">
         <v>119</v>
@@ -15982,7 +16268,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -16014,7 +16300,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -16046,7 +16332,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>11</v>
       </c>
@@ -16078,7 +16364,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>11</v>
       </c>
@@ -16110,7 +16396,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>11</v>
       </c>
@@ -16142,7 +16428,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>11</v>
       </c>
@@ -16165,7 +16451,7 @@
         <v>9</v>
       </c>
       <c r="H467" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="I467" t="s">
         <v>119</v>
@@ -16174,7 +16460,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>11</v>
       </c>
@@ -16197,7 +16483,7 @@
         <v>9</v>
       </c>
       <c r="H468" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="I468" t="s">
         <v>119</v>
@@ -16206,7 +16492,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>11</v>
       </c>
@@ -16238,7 +16524,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>11</v>
       </c>
@@ -16261,7 +16547,7 @@
         <v>9</v>
       </c>
       <c r="H470" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I470" t="s">
         <v>119</v>
@@ -16270,7 +16556,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>11</v>
       </c>
@@ -16293,7 +16579,7 @@
         <v>9</v>
       </c>
       <c r="H471" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="I471" t="s">
         <v>119</v>
@@ -16302,7 +16588,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>11</v>
       </c>
@@ -16334,7 +16620,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>11</v>
       </c>
@@ -16366,7 +16652,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>11</v>
       </c>
@@ -16389,7 +16675,7 @@
         <v>9</v>
       </c>
       <c r="H474" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="I474" t="s">
         <v>119</v>
@@ -16398,7 +16684,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>11</v>
       </c>
@@ -16430,7 +16716,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>11</v>
       </c>
@@ -16453,7 +16739,7 @@
         <v>9</v>
       </c>
       <c r="H476" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="I476" t="s">
         <v>119</v>
@@ -16462,7 +16748,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>11</v>
       </c>
@@ -16494,7 +16780,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>11</v>
       </c>
@@ -16517,7 +16803,7 @@
         <v>9</v>
       </c>
       <c r="H478" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="I478" t="s">
         <v>119</v>
@@ -16526,7 +16812,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>11</v>
       </c>
@@ -16549,7 +16835,7 @@
         <v>9</v>
       </c>
       <c r="H479" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="I479" t="s">
         <v>119</v>
@@ -16558,7 +16844,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>11</v>
       </c>
@@ -16590,7 +16876,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>11</v>
       </c>
@@ -16622,7 +16908,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>11</v>
       </c>
@@ -16654,7 +16940,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>11</v>
       </c>
@@ -16677,7 +16963,7 @@
         <v>9</v>
       </c>
       <c r="H483" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I483" t="s">
         <v>119</v>
@@ -16686,7 +16972,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>11</v>
       </c>
@@ -16718,7 +17004,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>11</v>
       </c>
@@ -16741,7 +17027,7 @@
         <v>9</v>
       </c>
       <c r="H485" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="I485" t="s">
         <v>119</v>
@@ -16750,7 +17036,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>11</v>
       </c>
@@ -16773,7 +17059,7 @@
         <v>9</v>
       </c>
       <c r="H486" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="I486" t="s">
         <v>119</v>
@@ -16782,7 +17068,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>11</v>
       </c>
@@ -16814,7 +17100,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>11</v>
       </c>
@@ -16837,7 +17123,7 @@
         <v>9</v>
       </c>
       <c r="H488" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="I488" t="s">
         <v>119</v>
@@ -16846,7 +17132,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>11</v>
       </c>
@@ -16878,7 +17164,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>11</v>
       </c>
@@ -16901,7 +17187,7 @@
         <v>9</v>
       </c>
       <c r="H490" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="I490" t="s">
         <v>119</v>
@@ -16910,7 +17196,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>11</v>
       </c>
@@ -16933,7 +17219,7 @@
         <v>9</v>
       </c>
       <c r="H491" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I491" t="s">
         <v>119</v>
@@ -16942,7 +17228,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>11</v>
       </c>
@@ -16965,7 +17251,7 @@
         <v>9</v>
       </c>
       <c r="H492" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="I492" t="s">
         <v>119</v>
@@ -16974,7 +17260,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>11</v>
       </c>
@@ -17006,7 +17292,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>11</v>
       </c>
@@ -17029,7 +17315,7 @@
         <v>9</v>
       </c>
       <c r="H494" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="I494" t="s">
         <v>119</v>
@@ -17038,7 +17324,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>11</v>
       </c>
@@ -17061,7 +17347,7 @@
         <v>9</v>
       </c>
       <c r="H495" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="I495" t="s">
         <v>119</v>
@@ -17070,7 +17356,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>11</v>
       </c>
@@ -17093,7 +17379,7 @@
         <v>9</v>
       </c>
       <c r="H496" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="I496" t="s">
         <v>119</v>
@@ -17102,7 +17388,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>11</v>
       </c>
@@ -17134,7 +17420,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -17166,7 +17452,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -17198,7 +17484,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>11</v>
       </c>
@@ -17221,7 +17507,7 @@
         <v>9</v>
       </c>
       <c r="H500" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="I500" t="s">
         <v>119</v>
@@ -17230,7 +17516,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>11</v>
       </c>
@@ -17262,7 +17548,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>11</v>
       </c>
@@ -17294,7 +17580,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>11</v>
       </c>
@@ -17326,7 +17612,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>11</v>
       </c>
@@ -17358,7 +17644,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>11</v>
       </c>
@@ -17381,7 +17667,7 @@
         <v>9</v>
       </c>
       <c r="H505" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="I505" t="s">
         <v>119</v>
@@ -17390,7 +17676,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>11</v>
       </c>
@@ -17413,7 +17699,7 @@
         <v>9</v>
       </c>
       <c r="H506" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="I506" t="s">
         <v>119</v>
@@ -17422,7 +17708,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>11</v>
       </c>
@@ -17445,7 +17731,7 @@
         <v>9</v>
       </c>
       <c r="H507" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="I507" t="s">
         <v>119</v>
@@ -17454,7 +17740,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>11</v>
       </c>
@@ -17477,7 +17763,7 @@
         <v>9</v>
       </c>
       <c r="H508" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="I508" t="s">
         <v>119</v>
@@ -17486,7 +17772,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>11</v>
       </c>
@@ -17509,7 +17795,7 @@
         <v>9</v>
       </c>
       <c r="H509" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I509" t="s">
         <v>119</v>
@@ -17518,7 +17804,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -17550,7 +17836,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>11</v>
       </c>
@@ -17573,7 +17859,7 @@
         <v>9</v>
       </c>
       <c r="H511" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="I511" t="s">
         <v>119</v>
@@ -17582,7 +17868,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>11</v>
       </c>
@@ -17605,7 +17891,7 @@
         <v>9</v>
       </c>
       <c r="H512" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="I512" t="s">
         <v>119</v>
@@ -17614,7 +17900,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>11</v>
       </c>
@@ -17646,7 +17932,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>11</v>
       </c>
@@ -17669,7 +17955,7 @@
         <v>9</v>
       </c>
       <c r="H514" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="I514" t="s">
         <v>119</v>
@@ -17678,7 +17964,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>11</v>
       </c>
@@ -17701,7 +17987,7 @@
         <v>9</v>
       </c>
       <c r="H515" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I515" t="s">
         <v>119</v>
@@ -17710,7 +17996,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>11</v>
       </c>
@@ -17742,7 +18028,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>11</v>
       </c>
@@ -17774,7 +18060,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>11</v>
       </c>
@@ -17806,7 +18092,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>11</v>
       </c>
@@ -17838,7 +18124,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>11</v>
       </c>
@@ -17870,7 +18156,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>11</v>
       </c>
@@ -17902,7 +18188,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>11</v>
       </c>
@@ -17925,7 +18211,7 @@
         <v>9</v>
       </c>
       <c r="H522" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="I522" t="s">
         <v>119</v>
@@ -17934,7 +18220,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>11</v>
       </c>
@@ -17957,7 +18243,7 @@
         <v>9</v>
       </c>
       <c r="H523" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="I523" t="s">
         <v>119</v>
@@ -17966,7 +18252,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>11</v>
       </c>
@@ -17989,7 +18275,7 @@
         <v>9</v>
       </c>
       <c r="H524" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="I524" t="s">
         <v>119</v>
@@ -17998,7 +18284,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>11</v>
       </c>
@@ -18030,7 +18316,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>11</v>
       </c>
@@ -18053,7 +18339,7 @@
         <v>9</v>
       </c>
       <c r="H526" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="I526" t="s">
         <v>119</v>
@@ -18062,7 +18348,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>11</v>
       </c>
@@ -18094,7 +18380,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>11</v>
       </c>
@@ -18117,7 +18403,7 @@
         <v>9</v>
       </c>
       <c r="H528" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="I528" t="s">
         <v>119</v>
@@ -18126,7 +18412,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>11</v>
       </c>
@@ -18149,7 +18435,7 @@
         <v>9</v>
       </c>
       <c r="H529" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="I529" t="s">
         <v>119</v>
@@ -18158,7 +18444,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>11</v>
       </c>
@@ -18190,7 +18476,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>11</v>
       </c>
@@ -18213,7 +18499,7 @@
         <v>9</v>
       </c>
       <c r="H531" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="I531" t="s">
         <v>119</v>
@@ -18222,7 +18508,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>11</v>
       </c>
@@ -18245,7 +18531,7 @@
         <v>9</v>
       </c>
       <c r="H532" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="I532" t="s">
         <v>119</v>
@@ -18254,7 +18540,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>11</v>
       </c>
@@ -18286,7 +18572,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>11</v>
       </c>
@@ -18309,7 +18595,7 @@
         <v>9</v>
       </c>
       <c r="H534" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="I534" t="s">
         <v>119</v>
@@ -18318,7 +18604,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>11</v>
       </c>
@@ -18341,7 +18627,7 @@
         <v>9</v>
       </c>
       <c r="H535" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="I535" t="s">
         <v>119</v>
@@ -18350,7 +18636,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>11</v>
       </c>
@@ -18373,7 +18659,7 @@
         <v>9</v>
       </c>
       <c r="H536" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="I536" t="s">
         <v>119</v>
@@ -18382,7 +18668,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>11</v>
       </c>
@@ -18405,7 +18691,7 @@
         <v>9</v>
       </c>
       <c r="H537" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="I537" t="s">
         <v>119</v>
@@ -18414,7 +18700,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>11</v>
       </c>
@@ -18446,7 +18732,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>11</v>
       </c>
@@ -18469,7 +18755,7 @@
         <v>9</v>
       </c>
       <c r="H539" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="I539" t="s">
         <v>119</v>
@@ -18478,7 +18764,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>11</v>
       </c>
@@ -18501,7 +18787,7 @@
         <v>9</v>
       </c>
       <c r="H540" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="I540" t="s">
         <v>119</v>
@@ -18510,7 +18796,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>11</v>
       </c>
@@ -18533,7 +18819,7 @@
         <v>9</v>
       </c>
       <c r="H541" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="I541" t="s">
         <v>119</v>
@@ -18542,7 +18828,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>11</v>
       </c>
@@ -18574,7 +18860,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>11</v>
       </c>
@@ -18606,7 +18892,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>11</v>
       </c>
@@ -18629,7 +18915,7 @@
         <v>9</v>
       </c>
       <c r="H544" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="I544" t="s">
         <v>119</v>
@@ -18638,7 +18924,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>11</v>
       </c>
@@ -18661,7 +18947,7 @@
         <v>9</v>
       </c>
       <c r="H545" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="I545" t="s">
         <v>119</v>
@@ -18670,7 +18956,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>11</v>
       </c>
@@ -18702,7 +18988,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>11</v>
       </c>
@@ -18734,7 +19020,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>11</v>
       </c>
@@ -18757,7 +19043,7 @@
         <v>9</v>
       </c>
       <c r="H548" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="I548" t="s">
         <v>119</v>
@@ -18766,7 +19052,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>11</v>
       </c>
@@ -18798,7 +19084,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>11</v>
       </c>
@@ -18830,7 +19116,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>11</v>
       </c>
@@ -18862,7 +19148,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>11</v>
       </c>
@@ -18894,7 +19180,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>11</v>
       </c>
@@ -18926,7 +19212,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>11</v>
       </c>
@@ -18958,7 +19244,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>11</v>
       </c>
@@ -18990,7 +19276,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>11</v>
       </c>
@@ -19013,7 +19299,7 @@
         <v>9</v>
       </c>
       <c r="H556" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="I556" t="s">
         <v>119</v>
@@ -19022,7 +19308,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>11</v>
       </c>
@@ -19054,7 +19340,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>11</v>
       </c>
@@ -19077,7 +19363,7 @@
         <v>9</v>
       </c>
       <c r="H558" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="I558" t="s">
         <v>119</v>
@@ -19086,7 +19372,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>12</v>
       </c>
@@ -19109,7 +19395,7 @@
         <v>9</v>
       </c>
       <c r="H559" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="I559" t="s">
         <v>119</v>
@@ -19118,7 +19404,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>12</v>
       </c>
@@ -19141,7 +19427,7 @@
         <v>9</v>
       </c>
       <c r="H560" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="I560" t="s">
         <v>119</v>
@@ -19150,7 +19436,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>12</v>
       </c>
@@ -19182,7 +19468,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>12</v>
       </c>
@@ -19205,7 +19491,7 @@
         <v>9</v>
       </c>
       <c r="H562" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="I562" t="s">
         <v>119</v>
@@ -19214,7 +19500,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>12</v>
       </c>
@@ -19246,7 +19532,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>12</v>
       </c>
@@ -19269,7 +19555,7 @@
         <v>9</v>
       </c>
       <c r="H564" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="I564" t="s">
         <v>119</v>
@@ -19278,7 +19564,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>12</v>
       </c>
@@ -19310,7 +19596,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>12</v>
       </c>
@@ -19342,7 +19628,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>12</v>
       </c>
@@ -19365,7 +19651,7 @@
         <v>9</v>
       </c>
       <c r="H567" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I567" t="s">
         <v>119</v>
@@ -19374,7 +19660,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>12</v>
       </c>
@@ -19397,7 +19683,7 @@
         <v>9</v>
       </c>
       <c r="H568" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="I568" t="s">
         <v>119</v>
@@ -19406,7 +19692,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>12</v>
       </c>
@@ -19438,7 +19724,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>12</v>
       </c>
@@ -19461,7 +19747,7 @@
         <v>9</v>
       </c>
       <c r="H570" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="I570" t="s">
         <v>119</v>
@@ -19470,7 +19756,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>12</v>
       </c>
@@ -19502,7 +19788,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>12</v>
       </c>
@@ -19525,7 +19811,7 @@
         <v>9</v>
       </c>
       <c r="H572" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="I572" t="s">
         <v>119</v>
@@ -19534,7 +19820,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>12</v>
       </c>
@@ -19566,7 +19852,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>12</v>
       </c>
@@ -19598,7 +19884,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>12</v>
       </c>
@@ -19630,7 +19916,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>12</v>
       </c>
@@ -19662,7 +19948,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>12</v>
       </c>
@@ -19694,7 +19980,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>12</v>
       </c>
@@ -19717,7 +20003,7 @@
         <v>9</v>
       </c>
       <c r="H578" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="I578" t="s">
         <v>119</v>
@@ -19726,7 +20012,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>12</v>
       </c>
@@ -19758,7 +20044,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>12</v>
       </c>
@@ -19790,7 +20076,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>12</v>
       </c>
@@ -19813,7 +20099,7 @@
         <v>9</v>
       </c>
       <c r="H581" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="I581" t="s">
         <v>119</v>
@@ -19822,7 +20108,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>12</v>
       </c>
@@ -19845,7 +20131,7 @@
         <v>9</v>
       </c>
       <c r="H582" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="I582" t="s">
         <v>119</v>
@@ -19854,7 +20140,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>12</v>
       </c>
@@ -19886,7 +20172,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>12</v>
       </c>
@@ -19918,7 +20204,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>12</v>
       </c>
@@ -19941,7 +20227,7 @@
         <v>9</v>
       </c>
       <c r="H585" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="I585" t="s">
         <v>119</v>
@@ -19950,7 +20236,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>12</v>
       </c>
@@ -19982,7 +20268,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>12</v>
       </c>
@@ -20014,7 +20300,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>12</v>
       </c>
@@ -20046,7 +20332,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>12</v>
       </c>

--- a/meta/assumption.xlsx
+++ b/meta/assumption.xlsx
@@ -345,9 +345,6 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>United States of America</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1539,13 +1539,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1571,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2">
         <v>197</v>
@@ -1606,7 +1606,7 @@
         <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3">
         <v>198</v>
@@ -1638,7 +1638,7 @@
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4">
         <v>199</v>
@@ -1667,10 +1667,10 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5">
         <v>200</v>
@@ -1699,10 +1699,10 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J6">
         <v>201</v>
@@ -1731,10 +1731,10 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7">
         <v>202</v>
@@ -1763,10 +1763,10 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8">
         <v>203</v>
@@ -1798,7 +1798,7 @@
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J9">
         <v>204</v>
@@ -1830,7 +1830,7 @@
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10">
         <v>205</v>
@@ -1862,7 +1862,7 @@
         <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11">
         <v>206</v>
@@ -1894,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J12">
         <v>207</v>
@@ -1923,10 +1923,10 @@
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13">
         <v>208</v>
@@ -1958,7 +1958,7 @@
         <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14">
         <v>209</v>
@@ -1987,10 +1987,10 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15">
         <v>210</v>
@@ -2019,10 +2019,10 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16">
         <v>211</v>
@@ -2054,7 +2054,7 @@
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J17">
         <v>212</v>
@@ -2086,7 +2086,7 @@
         <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J18">
         <v>213</v>
@@ -2115,10 +2115,10 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J19">
         <v>214</v>
@@ -2147,10 +2147,10 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20">
         <v>215</v>
@@ -2179,10 +2179,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21">
         <v>216</v>
@@ -2211,10 +2211,10 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J22">
         <v>217</v>
@@ -2243,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J23">
         <v>218</v>
@@ -2275,10 +2275,10 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J24">
         <v>219</v>
@@ -2307,10 +2307,10 @@
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J25">
         <v>220</v>
@@ -2339,10 +2339,10 @@
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J26">
         <v>221</v>
@@ -2371,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27">
         <v>222</v>
@@ -2406,7 +2406,7 @@
         <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J28">
         <v>223</v>
@@ -2435,10 +2435,10 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J29">
         <v>224</v>
@@ -2467,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J30">
         <v>225</v>
@@ -2502,7 +2502,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J31">
         <v>226</v>
@@ -2531,10 +2531,10 @@
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J32">
         <v>227</v>
@@ -2563,10 +2563,10 @@
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J33">
         <v>228</v>
@@ -2595,10 +2595,10 @@
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J34">
         <v>229</v>
@@ -2630,7 +2630,7 @@
         <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J35">
         <v>230</v>
@@ -2659,10 +2659,10 @@
         <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J36">
         <v>231</v>
@@ -2691,10 +2691,10 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J37">
         <v>232</v>
@@ -2723,10 +2723,10 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J38">
         <v>233</v>
@@ -2758,7 +2758,7 @@
         <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J39">
         <v>234</v>
@@ -2787,10 +2787,10 @@
         <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J40">
         <v>235</v>
@@ -2822,7 +2822,7 @@
         <v>101</v>
       </c>
       <c r="I41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J41">
         <v>236</v>
@@ -2854,7 +2854,7 @@
         <v>84</v>
       </c>
       <c r="I42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J42">
         <v>237</v>
@@ -2886,7 +2886,7 @@
         <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J43">
         <v>238</v>
@@ -2918,7 +2918,7 @@
         <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J44">
         <v>239</v>
@@ -2950,7 +2950,7 @@
         <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J45">
         <v>240</v>
@@ -2979,10 +2979,10 @@
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J46">
         <v>241</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J47">
         <v>242</v>
@@ -3046,7 +3046,7 @@
         <v>59</v>
       </c>
       <c r="I48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J48">
         <v>243</v>
@@ -3075,10 +3075,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J49">
         <v>244</v>
@@ -3107,10 +3107,10 @@
         <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J50">
         <v>245</v>
@@ -3139,10 +3139,10 @@
         <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J51">
         <v>246</v>
@@ -3171,10 +3171,10 @@
         <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J52">
         <v>247</v>
@@ -3206,7 +3206,7 @@
         <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J53">
         <v>248</v>
@@ -3235,10 +3235,10 @@
         <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J54">
         <v>249</v>
@@ -3270,7 +3270,7 @@
         <v>68</v>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J55">
         <v>250</v>
@@ -3299,10 +3299,10 @@
         <v>10</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J56">
         <v>251</v>
@@ -3331,10 +3331,10 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J57">
         <v>252</v>
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J58">
         <v>253</v>
@@ -3395,10 +3395,10 @@
         <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J59">
         <v>254</v>
@@ -3430,7 +3430,7 @@
         <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J60">
         <v>255</v>
@@ -3459,10 +3459,10 @@
         <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J61">
         <v>256</v>
@@ -3494,7 +3494,7 @@
         <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J62">
         <v>257</v>
@@ -3523,10 +3523,10 @@
         <v>10</v>
       </c>
       <c r="H63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J63">
         <v>258</v>
@@ -3555,10 +3555,10 @@
         <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J64">
         <v>259</v>
@@ -3590,7 +3590,7 @@
         <v>39</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J65">
         <v>260</v>
@@ -3619,10 +3619,10 @@
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J66">
         <v>261</v>
@@ -3651,10 +3651,10 @@
         <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J67">
         <v>262</v>
@@ -3686,7 +3686,7 @@
         <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J68">
         <v>263</v>
@@ -3715,10 +3715,10 @@
         <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J69">
         <v>264</v>
@@ -3750,7 +3750,7 @@
         <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J70">
         <v>265</v>
@@ -3779,10 +3779,10 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J71">
         <v>266</v>
@@ -3814,7 +3814,7 @@
         <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J72">
         <v>267</v>
@@ -3846,7 +3846,7 @@
         <v>93</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J73">
         <v>268</v>
@@ -3878,7 +3878,7 @@
         <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J74">
         <v>269</v>
@@ -3907,10 +3907,10 @@
         <v>10</v>
       </c>
       <c r="H75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J75">
         <v>270</v>
@@ -3939,10 +3939,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J76">
         <v>271</v>
@@ -3974,7 +3974,7 @@
         <v>99</v>
       </c>
       <c r="I77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J77">
         <v>272</v>
@@ -4003,10 +4003,10 @@
         <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J78">
         <v>273</v>
@@ -4035,10 +4035,10 @@
         <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J79">
         <v>274</v>
@@ -4070,7 +4070,7 @@
         <v>88</v>
       </c>
       <c r="I80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J80">
         <v>275</v>
@@ -4102,7 +4102,7 @@
         <v>91</v>
       </c>
       <c r="I81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J81">
         <v>276</v>
@@ -4131,10 +4131,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J82">
         <v>277</v>
@@ -4166,7 +4166,7 @@
         <v>45</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J83">
         <v>278</v>
@@ -4195,10 +4195,10 @@
         <v>10</v>
       </c>
       <c r="H84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J84">
         <v>279</v>
@@ -4230,7 +4230,7 @@
         <v>33</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J85">
         <v>280</v>
@@ -4259,10 +4259,10 @@
         <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J86">
         <v>281</v>
@@ -4291,10 +4291,10 @@
         <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J87">
         <v>282</v>
@@ -4326,7 +4326,7 @@
         <v>46</v>
       </c>
       <c r="I88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J88">
         <v>283</v>
@@ -4358,7 +4358,7 @@
         <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J89">
         <v>284</v>
@@ -4390,7 +4390,7 @@
         <v>26</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J90">
         <v>285</v>
@@ -4422,7 +4422,7 @@
         <v>60</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J91">
         <v>286</v>
@@ -4454,7 +4454,7 @@
         <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J92">
         <v>287</v>
@@ -4483,10 +4483,10 @@
         <v>10</v>
       </c>
       <c r="H93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J93">
         <v>288</v>
@@ -4515,10 +4515,10 @@
         <v>10</v>
       </c>
       <c r="H94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J94">
         <v>289</v>
@@ -4550,7 +4550,7 @@
         <v>40</v>
       </c>
       <c r="I95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J95">
         <v>290</v>
@@ -4579,10 +4579,10 @@
         <v>10</v>
       </c>
       <c r="H96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J96">
         <v>291</v>
@@ -4614,7 +4614,7 @@
         <v>102</v>
       </c>
       <c r="I97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J97">
         <v>292</v>
@@ -4643,10 +4643,10 @@
         <v>10</v>
       </c>
       <c r="H98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J98">
         <v>293</v>
@@ -4675,10 +4675,10 @@
         <v>10</v>
       </c>
       <c r="H99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J99">
         <v>294</v>
@@ -4707,10 +4707,10 @@
         <v>10</v>
       </c>
       <c r="H100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J100">
         <v>295</v>
@@ -4742,7 +4742,7 @@
         <v>76</v>
       </c>
       <c r="I101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J101">
         <v>296</v>
@@ -4771,10 +4771,10 @@
         <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J102">
         <v>297</v>
@@ -4803,10 +4803,10 @@
         <v>10</v>
       </c>
       <c r="H103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J103">
         <v>298</v>
@@ -4835,10 +4835,10 @@
         <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J104">
         <v>299</v>
@@ -4867,10 +4867,10 @@
         <v>10</v>
       </c>
       <c r="H105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J105">
         <v>300</v>
@@ -4902,7 +4902,7 @@
         <v>97</v>
       </c>
       <c r="I106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J106">
         <v>301</v>
@@ -4934,7 +4934,7 @@
         <v>31</v>
       </c>
       <c r="I107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J107">
         <v>302</v>
@@ -4963,10 +4963,10 @@
         <v>10</v>
       </c>
       <c r="H108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J108">
         <v>303</v>
@@ -4998,7 +4998,7 @@
         <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J109">
         <v>304</v>
@@ -5030,7 +5030,7 @@
         <v>100</v>
       </c>
       <c r="I110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J110">
         <v>305</v>
@@ -5062,7 +5062,7 @@
         <v>44</v>
       </c>
       <c r="I111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J111">
         <v>306</v>
@@ -5073,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="B112">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -5091,10 +5091,10 @@
         <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="I112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J112">
         <v>307</v>
@@ -5123,10 +5123,10 @@
         <v>10</v>
       </c>
       <c r="H113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J113">
         <v>308</v>
@@ -5155,10 +5155,10 @@
         <v>10</v>
       </c>
       <c r="H114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J114">
         <v>309</v>
@@ -5187,10 +5187,10 @@
         <v>10</v>
       </c>
       <c r="H115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J115">
         <v>310</v>
@@ -5219,10 +5219,10 @@
         <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J116">
         <v>311</v>
@@ -5254,7 +5254,7 @@
         <v>103</v>
       </c>
       <c r="I117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J117">
         <v>312</v>
@@ -5286,7 +5286,7 @@
         <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J118">
         <v>313</v>
@@ -5315,10 +5315,10 @@
         <v>10</v>
       </c>
       <c r="H119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J119">
         <v>314</v>
@@ -5347,10 +5347,10 @@
         <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J120">
         <v>315</v>
@@ -5382,7 +5382,7 @@
         <v>65</v>
       </c>
       <c r="I121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J121">
         <v>316</v>
@@ -5411,10 +5411,10 @@
         <v>10</v>
       </c>
       <c r="H122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J122">
         <v>317</v>
@@ -5446,7 +5446,7 @@
         <v>22</v>
       </c>
       <c r="I123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J123">
         <v>318</v>
@@ -5478,7 +5478,7 @@
         <v>57</v>
       </c>
       <c r="I124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J124">
         <v>319</v>
@@ -5510,7 +5510,7 @@
         <v>75</v>
       </c>
       <c r="I125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J125">
         <v>320</v>
@@ -5539,10 +5539,10 @@
         <v>10</v>
       </c>
       <c r="H126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J126">
         <v>321</v>
@@ -5574,7 +5574,7 @@
         <v>20</v>
       </c>
       <c r="I127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J127">
         <v>322</v>
@@ -5606,7 +5606,7 @@
         <v>64</v>
       </c>
       <c r="I128" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J128">
         <v>323</v>
@@ -5638,7 +5638,7 @@
         <v>85</v>
       </c>
       <c r="I129" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J129">
         <v>324</v>
@@ -5667,10 +5667,10 @@
         <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J130">
         <v>325</v>
@@ -5699,10 +5699,10 @@
         <v>10</v>
       </c>
       <c r="H131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J131">
         <v>326</v>
@@ -5731,10 +5731,10 @@
         <v>10</v>
       </c>
       <c r="H132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J132">
         <v>327</v>
@@ -5766,7 +5766,7 @@
         <v>18</v>
       </c>
       <c r="I133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J133">
         <v>328</v>
@@ -5795,10 +5795,10 @@
         <v>10</v>
       </c>
       <c r="H134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J134">
         <v>329</v>
@@ -5830,7 +5830,7 @@
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J135">
         <v>330</v>
@@ -5859,10 +5859,10 @@
         <v>10</v>
       </c>
       <c r="H136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J136">
         <v>331</v>
@@ -5891,10 +5891,10 @@
         <v>10</v>
       </c>
       <c r="H137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J137">
         <v>332</v>
@@ -5926,7 +5926,7 @@
         <v>81</v>
       </c>
       <c r="I138" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J138">
         <v>333</v>
@@ -5955,10 +5955,10 @@
         <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J139">
         <v>334</v>
@@ -5987,10 +5987,10 @@
         <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J140">
         <v>335</v>
@@ -6022,7 +6022,7 @@
         <v>41</v>
       </c>
       <c r="I141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J141">
         <v>336</v>
@@ -6051,10 +6051,10 @@
         <v>10</v>
       </c>
       <c r="H142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J142">
         <v>337</v>
@@ -6083,10 +6083,10 @@
         <v>10</v>
       </c>
       <c r="H143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J143">
         <v>338</v>
@@ -6115,10 +6115,10 @@
         <v>10</v>
       </c>
       <c r="H144" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J144">
         <v>339</v>
@@ -6147,10 +6147,10 @@
         <v>10</v>
       </c>
       <c r="H145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I145" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J145">
         <v>340</v>
@@ -6182,7 +6182,7 @@
         <v>66</v>
       </c>
       <c r="I146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J146">
         <v>341</v>
@@ -6211,10 +6211,10 @@
         <v>10</v>
       </c>
       <c r="H147" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J147">
         <v>342</v>
@@ -6243,10 +6243,10 @@
         <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J148">
         <v>343</v>
@@ -6275,10 +6275,10 @@
         <v>10</v>
       </c>
       <c r="H149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J149">
         <v>344</v>
@@ -6310,7 +6310,7 @@
         <v>51</v>
       </c>
       <c r="I150" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J150">
         <v>345</v>
@@ -6342,7 +6342,7 @@
         <v>37</v>
       </c>
       <c r="I151" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J151">
         <v>346</v>
@@ -6371,10 +6371,10 @@
         <v>10</v>
       </c>
       <c r="H152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I152" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J152">
         <v>347</v>
@@ -6403,10 +6403,10 @@
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I153" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J153">
         <v>348</v>
@@ -6438,7 +6438,7 @@
         <v>24</v>
       </c>
       <c r="I154" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J154">
         <v>349</v>
@@ -6470,7 +6470,7 @@
         <v>50</v>
       </c>
       <c r="I155" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J155">
         <v>350</v>
@@ -6499,10 +6499,10 @@
         <v>10</v>
       </c>
       <c r="H156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I156" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J156">
         <v>351</v>
@@ -6534,7 +6534,7 @@
         <v>86</v>
       </c>
       <c r="I157" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J157">
         <v>352</v>
@@ -6566,7 +6566,7 @@
         <v>90</v>
       </c>
       <c r="I158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J158">
         <v>353</v>
@@ -6598,7 +6598,7 @@
         <v>96</v>
       </c>
       <c r="I159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J159">
         <v>354</v>
@@ -6630,7 +6630,7 @@
         <v>74</v>
       </c>
       <c r="I160" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J160">
         <v>355</v>
@@ -6662,7 +6662,7 @@
         <v>53</v>
       </c>
       <c r="I161" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J161">
         <v>356</v>
@@ -6691,10 +6691,10 @@
         <v>10</v>
       </c>
       <c r="H162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I162" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J162">
         <v>357</v>
@@ -6726,7 +6726,7 @@
         <v>34</v>
       </c>
       <c r="I163" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J163">
         <v>358</v>
@@ -6755,10 +6755,10 @@
         <v>10</v>
       </c>
       <c r="H164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I164" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J164">
         <v>359</v>
@@ -6790,7 +6790,7 @@
         <v>30</v>
       </c>
       <c r="I165" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J165">
         <v>360</v>
@@ -6819,10 +6819,10 @@
         <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I166" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J166">
         <v>361</v>
@@ -6851,10 +6851,10 @@
         <v>10</v>
       </c>
       <c r="H167" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I167" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J167">
         <v>362</v>
@@ -6883,10 +6883,10 @@
         <v>10</v>
       </c>
       <c r="H168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I168" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J168">
         <v>363</v>
@@ -6918,7 +6918,7 @@
         <v>82</v>
       </c>
       <c r="I169" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J169">
         <v>364</v>
@@ -6947,10 +6947,10 @@
         <v>10</v>
       </c>
       <c r="H170" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I170" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J170">
         <v>365</v>
@@ -6982,7 +6982,7 @@
         <v>72</v>
       </c>
       <c r="I171" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J171">
         <v>366</v>
@@ -7011,10 +7011,10 @@
         <v>10</v>
       </c>
       <c r="H172" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I172" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J172">
         <v>367</v>
@@ -7046,7 +7046,7 @@
         <v>61</v>
       </c>
       <c r="I173" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J173">
         <v>368</v>
@@ -7078,7 +7078,7 @@
         <v>80</v>
       </c>
       <c r="I174" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J174">
         <v>369</v>
@@ -7107,10 +7107,10 @@
         <v>10</v>
       </c>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I175" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J175">
         <v>370</v>
@@ -7139,10 +7139,10 @@
         <v>10</v>
       </c>
       <c r="H176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I176" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J176">
         <v>371</v>
@@ -7174,7 +7174,7 @@
         <v>48</v>
       </c>
       <c r="I177" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J177">
         <v>372</v>
@@ -7203,10 +7203,10 @@
         <v>10</v>
       </c>
       <c r="H178" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J178">
         <v>373</v>
@@ -7238,7 +7238,7 @@
         <v>63</v>
       </c>
       <c r="I179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J179">
         <v>374</v>
@@ -7267,10 +7267,10 @@
         <v>10</v>
       </c>
       <c r="H180" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I180" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J180">
         <v>375</v>
@@ -7302,7 +7302,7 @@
         <v>92</v>
       </c>
       <c r="I181" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J181">
         <v>376</v>
@@ -7334,7 +7334,7 @@
         <v>52</v>
       </c>
       <c r="I182" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J182">
         <v>377</v>
@@ -7366,7 +7366,7 @@
         <v>36</v>
       </c>
       <c r="I183" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J183">
         <v>378</v>
@@ -7398,7 +7398,7 @@
         <v>106</v>
       </c>
       <c r="I184" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J184">
         <v>379</v>
@@ -7430,7 +7430,7 @@
         <v>27</v>
       </c>
       <c r="I185" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J185">
         <v>380</v>
@@ -7459,10 +7459,10 @@
         <v>10</v>
       </c>
       <c r="H186" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I186" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J186">
         <v>381</v>
@@ -7494,7 +7494,7 @@
         <v>54</v>
       </c>
       <c r="I187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J187">
         <v>382</v>
@@ -7526,7 +7526,7 @@
         <v>49</v>
       </c>
       <c r="I188" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J188">
         <v>383</v>
@@ -7555,10 +7555,10 @@
         <v>10</v>
       </c>
       <c r="H189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I189" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J189">
         <v>384</v>
@@ -7587,10 +7587,10 @@
         <v>10</v>
       </c>
       <c r="H190" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I190" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J190">
         <v>385</v>
@@ -7622,7 +7622,7 @@
         <v>21</v>
       </c>
       <c r="I191" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J191">
         <v>386</v>
@@ -7654,7 +7654,7 @@
         <v>55</v>
       </c>
       <c r="I192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J192">
         <v>387</v>
@@ -7683,10 +7683,10 @@
         <v>10</v>
       </c>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I193" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J193">
         <v>388</v>
@@ -7718,7 +7718,7 @@
         <v>73</v>
       </c>
       <c r="I194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J194">
         <v>389</v>
@@ -7750,7 +7750,7 @@
         <v>78</v>
       </c>
       <c r="I195" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J195">
         <v>390</v>
@@ -7779,10 +7779,10 @@
         <v>10</v>
       </c>
       <c r="H196" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I196" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J196">
         <v>391</v>
@@ -7814,7 +7814,7 @@
         <v>79</v>
       </c>
       <c r="I197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J197">
         <v>392</v>
@@ -7843,10 +7843,10 @@
         <v>10</v>
       </c>
       <c r="H198" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I198" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J198">
         <v>1</v>
@@ -7878,7 +7878,7 @@
         <v>105</v>
       </c>
       <c r="I199" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J199">
         <v>2</v>
@@ -7910,7 +7910,7 @@
         <v>87</v>
       </c>
       <c r="I200" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J200">
         <v>3</v>
@@ -7939,10 +7939,10 @@
         <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I201" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J201">
         <v>4</v>
@@ -7971,10 +7971,10 @@
         <v>10</v>
       </c>
       <c r="H202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I202" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J202">
         <v>5</v>
@@ -8003,10 +8003,10 @@
         <v>10</v>
       </c>
       <c r="H203" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I203" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J203">
         <v>6</v>
@@ -8035,10 +8035,10 @@
         <v>10</v>
       </c>
       <c r="H204" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I204" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J204">
         <v>7</v>
@@ -8070,7 +8070,7 @@
         <v>83</v>
       </c>
       <c r="I205" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J205">
         <v>8</v>
@@ -8102,7 +8102,7 @@
         <v>56</v>
       </c>
       <c r="I206" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J206">
         <v>9</v>
@@ -8134,7 +8134,7 @@
         <v>70</v>
       </c>
       <c r="I207" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J207">
         <v>10</v>
@@ -8166,7 +8166,7 @@
         <v>58</v>
       </c>
       <c r="I208" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J208">
         <v>11</v>
@@ -8195,10 +8195,10 @@
         <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I209" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J209">
         <v>12</v>
@@ -8230,7 +8230,7 @@
         <v>104</v>
       </c>
       <c r="I210" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J210">
         <v>13</v>
@@ -8259,10 +8259,10 @@
         <v>10</v>
       </c>
       <c r="H211" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I211" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J211">
         <v>14</v>
@@ -8291,10 +8291,10 @@
         <v>10</v>
       </c>
       <c r="H212" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I212" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J212">
         <v>15</v>
@@ -8326,7 +8326,7 @@
         <v>28</v>
       </c>
       <c r="I213" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J213">
         <v>16</v>
@@ -8358,7 +8358,7 @@
         <v>69</v>
       </c>
       <c r="I214" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J214">
         <v>17</v>
@@ -8387,10 +8387,10 @@
         <v>10</v>
       </c>
       <c r="H215" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I215" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J215">
         <v>18</v>
@@ -8419,10 +8419,10 @@
         <v>10</v>
       </c>
       <c r="H216" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I216" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J216">
         <v>19</v>
@@ -8451,10 +8451,10 @@
         <v>10</v>
       </c>
       <c r="H217" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I217" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J217">
         <v>20</v>
@@ -8483,10 +8483,10 @@
         <v>10</v>
       </c>
       <c r="H218" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I218" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J218">
         <v>21</v>
@@ -8515,10 +8515,10 @@
         <v>10</v>
       </c>
       <c r="H219" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I219" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J219">
         <v>22</v>
@@ -8547,10 +8547,10 @@
         <v>10</v>
       </c>
       <c r="H220" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I220" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J220">
         <v>23</v>
@@ -8579,10 +8579,10 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I221" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J221">
         <v>24</v>
@@ -8611,10 +8611,10 @@
         <v>10</v>
       </c>
       <c r="H222" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I222" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J222">
         <v>25</v>
@@ -8643,10 +8643,10 @@
         <v>10</v>
       </c>
       <c r="H223" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I223" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J223">
         <v>26</v>
@@ -8678,7 +8678,7 @@
         <v>67</v>
       </c>
       <c r="I224" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J224">
         <v>27</v>
@@ -8707,10 +8707,10 @@
         <v>10</v>
       </c>
       <c r="H225" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I225" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J225">
         <v>28</v>
@@ -8739,10 +8739,10 @@
         <v>10</v>
       </c>
       <c r="H226" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I226" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J226">
         <v>29</v>
@@ -8774,7 +8774,7 @@
         <v>62</v>
       </c>
       <c r="I227" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J227">
         <v>30</v>
@@ -8803,10 +8803,10 @@
         <v>10</v>
       </c>
       <c r="H228" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I228" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J228">
         <v>31</v>
@@ -8835,10 +8835,10 @@
         <v>10</v>
       </c>
       <c r="H229" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I229" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J229">
         <v>32</v>
@@ -8867,10 +8867,10 @@
         <v>10</v>
       </c>
       <c r="H230" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I230" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J230">
         <v>33</v>
@@ -8902,7 +8902,7 @@
         <v>43</v>
       </c>
       <c r="I231" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J231">
         <v>34</v>
@@ -8931,10 +8931,10 @@
         <v>10</v>
       </c>
       <c r="H232" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I232" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J232">
         <v>35</v>
@@ -8963,10 +8963,10 @@
         <v>10</v>
       </c>
       <c r="H233" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I233" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J233">
         <v>36</v>
@@ -8995,10 +8995,10 @@
         <v>10</v>
       </c>
       <c r="H234" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I234" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J234">
         <v>37</v>
@@ -9030,7 +9030,7 @@
         <v>35</v>
       </c>
       <c r="I235" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J235">
         <v>38</v>
@@ -9059,10 +9059,10 @@
         <v>10</v>
       </c>
       <c r="H236" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I236" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J236">
         <v>39</v>
@@ -9094,7 +9094,7 @@
         <v>101</v>
       </c>
       <c r="I237" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J237">
         <v>40</v>
@@ -9126,7 +9126,7 @@
         <v>84</v>
       </c>
       <c r="I238" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J238">
         <v>41</v>
@@ -9158,7 +9158,7 @@
         <v>94</v>
       </c>
       <c r="I239" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J239">
         <v>42</v>
@@ -9190,7 +9190,7 @@
         <v>38</v>
       </c>
       <c r="I240" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J240">
         <v>43</v>
@@ -9222,7 +9222,7 @@
         <v>77</v>
       </c>
       <c r="I241" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J241">
         <v>44</v>
@@ -9251,10 +9251,10 @@
         <v>10</v>
       </c>
       <c r="H242" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I242" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J242">
         <v>45</v>
@@ -9286,7 +9286,7 @@
         <v>42</v>
       </c>
       <c r="I243" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J243">
         <v>46</v>
@@ -9318,7 +9318,7 @@
         <v>59</v>
       </c>
       <c r="I244" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J244">
         <v>47</v>
@@ -9347,10 +9347,10 @@
         <v>10</v>
       </c>
       <c r="H245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I245" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J245">
         <v>48</v>
@@ -9379,10 +9379,10 @@
         <v>10</v>
       </c>
       <c r="H246" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I246" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J246">
         <v>49</v>
@@ -9411,10 +9411,10 @@
         <v>10</v>
       </c>
       <c r="H247" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I247" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J247">
         <v>50</v>
@@ -9443,10 +9443,10 @@
         <v>10</v>
       </c>
       <c r="H248" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I248" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J248">
         <v>51</v>
@@ -9478,7 +9478,7 @@
         <v>89</v>
       </c>
       <c r="I249" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J249">
         <v>52</v>
@@ -9507,10 +9507,10 @@
         <v>10</v>
       </c>
       <c r="H250" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I250" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J250">
         <v>53</v>
@@ -9542,7 +9542,7 @@
         <v>68</v>
       </c>
       <c r="I251" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J251">
         <v>54</v>
@@ -9571,10 +9571,10 @@
         <v>10</v>
       </c>
       <c r="H252" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I252" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J252">
         <v>55</v>
@@ -9603,10 +9603,10 @@
         <v>10</v>
       </c>
       <c r="H253" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I253" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J253">
         <v>56</v>
@@ -9635,10 +9635,10 @@
         <v>10</v>
       </c>
       <c r="H254" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I254" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J254">
         <v>57</v>
@@ -9667,10 +9667,10 @@
         <v>10</v>
       </c>
       <c r="H255" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I255" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J255">
         <v>58</v>
@@ -9702,7 +9702,7 @@
         <v>19</v>
       </c>
       <c r="I256" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J256">
         <v>59</v>
@@ -9731,10 +9731,10 @@
         <v>10</v>
       </c>
       <c r="H257" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I257" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J257">
         <v>60</v>
@@ -9766,7 +9766,7 @@
         <v>95</v>
       </c>
       <c r="I258" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J258">
         <v>61</v>
@@ -9795,10 +9795,10 @@
         <v>10</v>
       </c>
       <c r="H259" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I259" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J259">
         <v>62</v>
@@ -9827,10 +9827,10 @@
         <v>10</v>
       </c>
       <c r="H260" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I260" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J260">
         <v>63</v>
@@ -9862,7 +9862,7 @@
         <v>39</v>
       </c>
       <c r="I261" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J261">
         <v>64</v>
@@ -9891,10 +9891,10 @@
         <v>10</v>
       </c>
       <c r="H262" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I262" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J262">
         <v>65</v>
@@ -9923,10 +9923,10 @@
         <v>10</v>
       </c>
       <c r="H263" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I263" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J263">
         <v>66</v>
@@ -9958,7 +9958,7 @@
         <v>98</v>
       </c>
       <c r="I264" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J264">
         <v>67</v>
@@ -9987,10 +9987,10 @@
         <v>10</v>
       </c>
       <c r="H265" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I265" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J265">
         <v>68</v>
@@ -10022,7 +10022,7 @@
         <v>16</v>
       </c>
       <c r="I266" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J266">
         <v>69</v>
@@ -10051,10 +10051,10 @@
         <v>10</v>
       </c>
       <c r="H267" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I267" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J267">
         <v>70</v>
@@ -10086,7 +10086,7 @@
         <v>71</v>
       </c>
       <c r="I268" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J268">
         <v>71</v>
@@ -10118,7 +10118,7 @@
         <v>93</v>
       </c>
       <c r="I269" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J269">
         <v>72</v>
@@ -10150,7 +10150,7 @@
         <v>29</v>
       </c>
       <c r="I270" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J270">
         <v>73</v>
@@ -10179,10 +10179,10 @@
         <v>10</v>
       </c>
       <c r="H271" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I271" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J271">
         <v>74</v>
@@ -10211,10 +10211,10 @@
         <v>10</v>
       </c>
       <c r="H272" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I272" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J272">
         <v>75</v>
@@ -10246,7 +10246,7 @@
         <v>99</v>
       </c>
       <c r="I273" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J273">
         <v>76</v>
@@ -10275,10 +10275,10 @@
         <v>10</v>
       </c>
       <c r="H274" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I274" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J274">
         <v>77</v>
@@ -10307,10 +10307,10 @@
         <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I275" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J275">
         <v>78</v>
@@ -10342,7 +10342,7 @@
         <v>88</v>
       </c>
       <c r="I276" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J276">
         <v>79</v>
@@ -10374,7 +10374,7 @@
         <v>91</v>
       </c>
       <c r="I277" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J277">
         <v>80</v>
@@ -10403,10 +10403,10 @@
         <v>10</v>
       </c>
       <c r="H278" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I278" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J278">
         <v>81</v>
@@ -10438,7 +10438,7 @@
         <v>45</v>
       </c>
       <c r="I279" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J279">
         <v>82</v>
@@ -10467,10 +10467,10 @@
         <v>10</v>
       </c>
       <c r="H280" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I280" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J280">
         <v>83</v>
@@ -10502,7 +10502,7 @@
         <v>33</v>
       </c>
       <c r="I281" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J281">
         <v>84</v>
@@ -10531,10 +10531,10 @@
         <v>10</v>
       </c>
       <c r="H282" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I282" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J282">
         <v>85</v>
@@ -10563,10 +10563,10 @@
         <v>10</v>
       </c>
       <c r="H283" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I283" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J283">
         <v>86</v>
@@ -10598,7 +10598,7 @@
         <v>46</v>
       </c>
       <c r="I284" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J284">
         <v>87</v>
@@ -10630,7 +10630,7 @@
         <v>47</v>
       </c>
       <c r="I285" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J285">
         <v>88</v>
@@ -10662,7 +10662,7 @@
         <v>26</v>
       </c>
       <c r="I286" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J286">
         <v>89</v>
@@ -10694,7 +10694,7 @@
         <v>60</v>
       </c>
       <c r="I287" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J287">
         <v>90</v>
@@ -10726,7 +10726,7 @@
         <v>17</v>
       </c>
       <c r="I288" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J288">
         <v>91</v>
@@ -10755,10 +10755,10 @@
         <v>10</v>
       </c>
       <c r="H289" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I289" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J289">
         <v>92</v>
@@ -10787,10 +10787,10 @@
         <v>10</v>
       </c>
       <c r="H290" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I290" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J290">
         <v>93</v>
@@ -10822,7 +10822,7 @@
         <v>40</v>
       </c>
       <c r="I291" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J291">
         <v>94</v>
@@ -10851,10 +10851,10 @@
         <v>10</v>
       </c>
       <c r="H292" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I292" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J292">
         <v>95</v>
@@ -10886,7 +10886,7 @@
         <v>102</v>
       </c>
       <c r="I293" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J293">
         <v>96</v>
@@ -10915,10 +10915,10 @@
         <v>10</v>
       </c>
       <c r="H294" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I294" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J294">
         <v>97</v>
@@ -10947,10 +10947,10 @@
         <v>10</v>
       </c>
       <c r="H295" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I295" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J295">
         <v>98</v>
@@ -10979,10 +10979,10 @@
         <v>10</v>
       </c>
       <c r="H296" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I296" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J296">
         <v>99</v>
@@ -11014,7 +11014,7 @@
         <v>76</v>
       </c>
       <c r="I297" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J297">
         <v>100</v>
@@ -11043,10 +11043,10 @@
         <v>10</v>
       </c>
       <c r="H298" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I298" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J298">
         <v>101</v>
@@ -11075,10 +11075,10 @@
         <v>10</v>
       </c>
       <c r="H299" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I299" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J299">
         <v>102</v>
@@ -11107,10 +11107,10 @@
         <v>10</v>
       </c>
       <c r="H300" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I300" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J300">
         <v>103</v>
@@ -11139,10 +11139,10 @@
         <v>10</v>
       </c>
       <c r="H301" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I301" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J301">
         <v>104</v>
@@ -11174,7 +11174,7 @@
         <v>97</v>
       </c>
       <c r="I302" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J302">
         <v>105</v>
@@ -11206,7 +11206,7 @@
         <v>31</v>
       </c>
       <c r="I303" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J303">
         <v>106</v>
@@ -11235,10 +11235,10 @@
         <v>10</v>
       </c>
       <c r="H304" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I304" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J304">
         <v>107</v>
@@ -11270,7 +11270,7 @@
         <v>23</v>
       </c>
       <c r="I305" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J305">
         <v>108</v>
@@ -11302,7 +11302,7 @@
         <v>100</v>
       </c>
       <c r="I306" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J306">
         <v>109</v>
@@ -11334,7 +11334,7 @@
         <v>44</v>
       </c>
       <c r="I307" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J307">
         <v>110</v>
@@ -11345,7 +11345,7 @@
         <v>11</v>
       </c>
       <c r="B308">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -11363,10 +11363,10 @@
         <v>10</v>
       </c>
       <c r="H308" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="I308" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J308">
         <v>111</v>
@@ -11395,10 +11395,10 @@
         <v>10</v>
       </c>
       <c r="H309" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I309" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J309">
         <v>112</v>
@@ -11427,10 +11427,10 @@
         <v>10</v>
       </c>
       <c r="H310" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I310" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J310">
         <v>113</v>
@@ -11459,10 +11459,10 @@
         <v>10</v>
       </c>
       <c r="H311" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I311" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J311">
         <v>114</v>
@@ -11491,10 +11491,10 @@
         <v>10</v>
       </c>
       <c r="H312" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I312" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J312">
         <v>115</v>
@@ -11526,7 +11526,7 @@
         <v>103</v>
       </c>
       <c r="I313" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J313">
         <v>116</v>
@@ -11558,7 +11558,7 @@
         <v>32</v>
       </c>
       <c r="I314" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J314">
         <v>117</v>
@@ -11587,10 +11587,10 @@
         <v>10</v>
       </c>
       <c r="H315" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I315" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J315">
         <v>118</v>
@@ -11619,10 +11619,10 @@
         <v>10</v>
       </c>
       <c r="H316" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I316" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J316">
         <v>119</v>
@@ -11654,7 +11654,7 @@
         <v>65</v>
       </c>
       <c r="I317" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J317">
         <v>120</v>
@@ -11683,10 +11683,10 @@
         <v>10</v>
       </c>
       <c r="H318" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I318" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J318">
         <v>121</v>
@@ -11718,7 +11718,7 @@
         <v>22</v>
       </c>
       <c r="I319" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J319">
         <v>122</v>
@@ -11750,7 +11750,7 @@
         <v>57</v>
       </c>
       <c r="I320" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J320">
         <v>123</v>
@@ -11782,7 +11782,7 @@
         <v>75</v>
       </c>
       <c r="I321" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J321">
         <v>124</v>
@@ -11811,10 +11811,10 @@
         <v>10</v>
       </c>
       <c r="H322" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I322" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J322">
         <v>125</v>
@@ -11846,7 +11846,7 @@
         <v>20</v>
       </c>
       <c r="I323" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J323">
         <v>126</v>
@@ -11878,7 +11878,7 @@
         <v>64</v>
       </c>
       <c r="I324" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J324">
         <v>127</v>
@@ -11910,7 +11910,7 @@
         <v>85</v>
       </c>
       <c r="I325" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J325">
         <v>128</v>
@@ -11939,10 +11939,10 @@
         <v>10</v>
       </c>
       <c r="H326" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I326" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J326">
         <v>129</v>
@@ -11971,10 +11971,10 @@
         <v>10</v>
       </c>
       <c r="H327" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I327" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J327">
         <v>130</v>
@@ -12003,10 +12003,10 @@
         <v>10</v>
       </c>
       <c r="H328" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I328" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J328">
         <v>131</v>
@@ -12038,7 +12038,7 @@
         <v>18</v>
       </c>
       <c r="I329" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J329">
         <v>132</v>
@@ -12067,10 +12067,10 @@
         <v>10</v>
       </c>
       <c r="H330" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I330" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J330">
         <v>133</v>
@@ -12102,7 +12102,7 @@
         <v>25</v>
       </c>
       <c r="I331" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J331">
         <v>134</v>
@@ -12131,10 +12131,10 @@
         <v>10</v>
       </c>
       <c r="H332" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I332" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J332">
         <v>135</v>
@@ -12163,10 +12163,10 @@
         <v>10</v>
       </c>
       <c r="H333" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I333" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J333">
         <v>136</v>
@@ -12198,7 +12198,7 @@
         <v>81</v>
       </c>
       <c r="I334" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J334">
         <v>137</v>
@@ -12227,10 +12227,10 @@
         <v>10</v>
       </c>
       <c r="H335" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I335" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J335">
         <v>138</v>
@@ -12259,10 +12259,10 @@
         <v>10</v>
       </c>
       <c r="H336" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I336" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J336">
         <v>139</v>
@@ -12294,7 +12294,7 @@
         <v>41</v>
       </c>
       <c r="I337" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J337">
         <v>140</v>
@@ -12323,10 +12323,10 @@
         <v>10</v>
       </c>
       <c r="H338" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I338" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J338">
         <v>141</v>
@@ -12355,10 +12355,10 @@
         <v>10</v>
       </c>
       <c r="H339" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I339" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J339">
         <v>142</v>
@@ -12387,10 +12387,10 @@
         <v>10</v>
       </c>
       <c r="H340" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I340" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J340">
         <v>143</v>
@@ -12419,10 +12419,10 @@
         <v>10</v>
       </c>
       <c r="H341" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I341" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J341">
         <v>144</v>
@@ -12454,7 +12454,7 @@
         <v>66</v>
       </c>
       <c r="I342" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J342">
         <v>145</v>
@@ -12483,10 +12483,10 @@
         <v>10</v>
       </c>
       <c r="H343" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I343" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J343">
         <v>146</v>
@@ -12515,10 +12515,10 @@
         <v>10</v>
       </c>
       <c r="H344" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I344" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J344">
         <v>147</v>
@@ -12547,10 +12547,10 @@
         <v>10</v>
       </c>
       <c r="H345" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I345" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J345">
         <v>148</v>
@@ -12582,7 +12582,7 @@
         <v>51</v>
       </c>
       <c r="I346" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J346">
         <v>149</v>
@@ -12614,7 +12614,7 @@
         <v>37</v>
       </c>
       <c r="I347" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J347">
         <v>150</v>
@@ -12643,10 +12643,10 @@
         <v>10</v>
       </c>
       <c r="H348" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I348" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J348">
         <v>151</v>
@@ -12675,10 +12675,10 @@
         <v>10</v>
       </c>
       <c r="H349" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I349" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J349">
         <v>152</v>
@@ -12710,7 +12710,7 @@
         <v>24</v>
       </c>
       <c r="I350" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J350">
         <v>153</v>
@@ -12742,7 +12742,7 @@
         <v>50</v>
       </c>
       <c r="I351" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J351">
         <v>154</v>
@@ -12771,10 +12771,10 @@
         <v>10</v>
       </c>
       <c r="H352" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I352" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J352">
         <v>155</v>
@@ -12806,7 +12806,7 @@
         <v>86</v>
       </c>
       <c r="I353" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J353">
         <v>156</v>
@@ -12838,7 +12838,7 @@
         <v>90</v>
       </c>
       <c r="I354" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J354">
         <v>157</v>
@@ -12870,7 +12870,7 @@
         <v>96</v>
       </c>
       <c r="I355" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J355">
         <v>158</v>
@@ -12902,7 +12902,7 @@
         <v>74</v>
       </c>
       <c r="I356" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J356">
         <v>159</v>
@@ -12934,7 +12934,7 @@
         <v>53</v>
       </c>
       <c r="I357" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J357">
         <v>160</v>
@@ -12963,10 +12963,10 @@
         <v>10</v>
       </c>
       <c r="H358" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I358" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J358">
         <v>161</v>
@@ -12998,7 +12998,7 @@
         <v>34</v>
       </c>
       <c r="I359" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J359">
         <v>162</v>
@@ -13027,10 +13027,10 @@
         <v>10</v>
       </c>
       <c r="H360" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I360" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J360">
         <v>163</v>
@@ -13062,7 +13062,7 @@
         <v>30</v>
       </c>
       <c r="I361" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J361">
         <v>164</v>
@@ -13091,10 +13091,10 @@
         <v>10</v>
       </c>
       <c r="H362" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I362" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J362">
         <v>165</v>
@@ -13123,10 +13123,10 @@
         <v>10</v>
       </c>
       <c r="H363" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I363" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J363">
         <v>166</v>
@@ -13155,10 +13155,10 @@
         <v>10</v>
       </c>
       <c r="H364" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I364" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J364">
         <v>167</v>
@@ -13190,7 +13190,7 @@
         <v>82</v>
       </c>
       <c r="I365" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J365">
         <v>168</v>
@@ -13219,10 +13219,10 @@
         <v>10</v>
       </c>
       <c r="H366" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I366" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J366">
         <v>169</v>
@@ -13254,7 +13254,7 @@
         <v>72</v>
       </c>
       <c r="I367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J367">
         <v>170</v>
@@ -13283,10 +13283,10 @@
         <v>10</v>
       </c>
       <c r="H368" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I368" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J368">
         <v>171</v>
@@ -13318,7 +13318,7 @@
         <v>61</v>
       </c>
       <c r="I369" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J369">
         <v>172</v>
@@ -13350,7 +13350,7 @@
         <v>80</v>
       </c>
       <c r="I370" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J370">
         <v>173</v>
@@ -13379,10 +13379,10 @@
         <v>10</v>
       </c>
       <c r="H371" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I371" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J371">
         <v>174</v>
@@ -13411,10 +13411,10 @@
         <v>10</v>
       </c>
       <c r="H372" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I372" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J372">
         <v>175</v>
@@ -13446,7 +13446,7 @@
         <v>48</v>
       </c>
       <c r="I373" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J373">
         <v>176</v>
@@ -13475,10 +13475,10 @@
         <v>10</v>
       </c>
       <c r="H374" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I374" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J374">
         <v>177</v>
@@ -13510,7 +13510,7 @@
         <v>63</v>
       </c>
       <c r="I375" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J375">
         <v>178</v>
@@ -13539,10 +13539,10 @@
         <v>10</v>
       </c>
       <c r="H376" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I376" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J376">
         <v>179</v>
@@ -13574,7 +13574,7 @@
         <v>92</v>
       </c>
       <c r="I377" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J377">
         <v>180</v>
@@ -13606,7 +13606,7 @@
         <v>52</v>
       </c>
       <c r="I378" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J378">
         <v>181</v>
@@ -13638,7 +13638,7 @@
         <v>36</v>
       </c>
       <c r="I379" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J379">
         <v>182</v>
@@ -13670,7 +13670,7 @@
         <v>106</v>
       </c>
       <c r="I380" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J380">
         <v>183</v>
@@ -13702,7 +13702,7 @@
         <v>27</v>
       </c>
       <c r="I381" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J381">
         <v>184</v>
@@ -13731,10 +13731,10 @@
         <v>10</v>
       </c>
       <c r="H382" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I382" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J382">
         <v>185</v>
@@ -13766,7 +13766,7 @@
         <v>54</v>
       </c>
       <c r="I383" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J383">
         <v>186</v>
@@ -13798,7 +13798,7 @@
         <v>49</v>
       </c>
       <c r="I384" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J384">
         <v>187</v>
@@ -13827,10 +13827,10 @@
         <v>10</v>
       </c>
       <c r="H385" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I385" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J385">
         <v>188</v>
@@ -13859,10 +13859,10 @@
         <v>10</v>
       </c>
       <c r="H386" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I386" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J386">
         <v>189</v>
@@ -13894,7 +13894,7 @@
         <v>21</v>
       </c>
       <c r="I387" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J387">
         <v>190</v>
@@ -13926,7 +13926,7 @@
         <v>55</v>
       </c>
       <c r="I388" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J388">
         <v>191</v>
@@ -13955,10 +13955,10 @@
         <v>10</v>
       </c>
       <c r="H389" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I389" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J389">
         <v>192</v>
@@ -13990,7 +13990,7 @@
         <v>73</v>
       </c>
       <c r="I390" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J390">
         <v>193</v>
@@ -14022,7 +14022,7 @@
         <v>78</v>
       </c>
       <c r="I391" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J391">
         <v>194</v>
@@ -14051,10 +14051,10 @@
         <v>10</v>
       </c>
       <c r="H392" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I392" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J392">
         <v>195</v>
@@ -14086,7 +14086,7 @@
         <v>79</v>
       </c>
       <c r="I393" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J393">
         <v>196</v>
@@ -14115,10 +14115,10 @@
         <v>9</v>
       </c>
       <c r="H394" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I394" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J394">
         <v>393</v>
@@ -14150,7 +14150,7 @@
         <v>105</v>
       </c>
       <c r="I395" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J395">
         <v>394</v>
@@ -14182,7 +14182,7 @@
         <v>87</v>
       </c>
       <c r="I396" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J396">
         <v>395</v>
@@ -14211,10 +14211,10 @@
         <v>9</v>
       </c>
       <c r="H397" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I397" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J397">
         <v>396</v>
@@ -14243,10 +14243,10 @@
         <v>9</v>
       </c>
       <c r="H398" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I398" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J398">
         <v>397</v>
@@ -14275,10 +14275,10 @@
         <v>9</v>
       </c>
       <c r="H399" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I399" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J399">
         <v>398</v>
@@ -14307,10 +14307,10 @@
         <v>9</v>
       </c>
       <c r="H400" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I400" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J400">
         <v>399</v>
@@ -14342,7 +14342,7 @@
         <v>83</v>
       </c>
       <c r="I401" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J401">
         <v>400</v>
@@ -14374,7 +14374,7 @@
         <v>56</v>
       </c>
       <c r="I402" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J402">
         <v>401</v>
@@ -14406,7 +14406,7 @@
         <v>70</v>
       </c>
       <c r="I403" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J403">
         <v>402</v>
@@ -14438,7 +14438,7 @@
         <v>58</v>
       </c>
       <c r="I404" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J404">
         <v>403</v>
@@ -14467,10 +14467,10 @@
         <v>9</v>
       </c>
       <c r="H405" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I405" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J405">
         <v>404</v>
@@ -14502,7 +14502,7 @@
         <v>104</v>
       </c>
       <c r="I406" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J406">
         <v>405</v>
@@ -14531,10 +14531,10 @@
         <v>9</v>
       </c>
       <c r="H407" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I407" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J407">
         <v>406</v>
@@ -14563,10 +14563,10 @@
         <v>9</v>
       </c>
       <c r="H408" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I408" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J408">
         <v>407</v>
@@ -14598,7 +14598,7 @@
         <v>28</v>
       </c>
       <c r="I409" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J409">
         <v>408</v>
@@ -14630,7 +14630,7 @@
         <v>69</v>
       </c>
       <c r="I410" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J410">
         <v>409</v>
@@ -14659,10 +14659,10 @@
         <v>9</v>
       </c>
       <c r="H411" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I411" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J411">
         <v>410</v>
@@ -14691,10 +14691,10 @@
         <v>9</v>
       </c>
       <c r="H412" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I412" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J412">
         <v>411</v>
@@ -14723,10 +14723,10 @@
         <v>9</v>
       </c>
       <c r="H413" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I413" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J413">
         <v>412</v>
@@ -14755,10 +14755,10 @@
         <v>9</v>
       </c>
       <c r="H414" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I414" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J414">
         <v>413</v>
@@ -14787,10 +14787,10 @@
         <v>9</v>
       </c>
       <c r="H415" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I415" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J415">
         <v>414</v>
@@ -14819,10 +14819,10 @@
         <v>9</v>
       </c>
       <c r="H416" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I416" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J416">
         <v>415</v>
@@ -14851,10 +14851,10 @@
         <v>9</v>
       </c>
       <c r="H417" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I417" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J417">
         <v>416</v>
@@ -14883,10 +14883,10 @@
         <v>9</v>
       </c>
       <c r="H418" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I418" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J418">
         <v>417</v>
@@ -14915,10 +14915,10 @@
         <v>9</v>
       </c>
       <c r="H419" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I419" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J419">
         <v>418</v>
@@ -14950,7 +14950,7 @@
         <v>67</v>
       </c>
       <c r="I420" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J420">
         <v>419</v>
@@ -14979,10 +14979,10 @@
         <v>9</v>
       </c>
       <c r="H421" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I421" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J421">
         <v>420</v>
@@ -15011,10 +15011,10 @@
         <v>9</v>
       </c>
       <c r="H422" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I422" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J422">
         <v>421</v>
@@ -15046,7 +15046,7 @@
         <v>62</v>
       </c>
       <c r="I423" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J423">
         <v>422</v>
@@ -15075,10 +15075,10 @@
         <v>9</v>
       </c>
       <c r="H424" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I424" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J424">
         <v>423</v>
@@ -15107,10 +15107,10 @@
         <v>9</v>
       </c>
       <c r="H425" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I425" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J425">
         <v>424</v>
@@ -15139,10 +15139,10 @@
         <v>9</v>
       </c>
       <c r="H426" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I426" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J426">
         <v>425</v>
@@ -15174,7 +15174,7 @@
         <v>43</v>
       </c>
       <c r="I427" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J427">
         <v>426</v>
@@ -15203,10 +15203,10 @@
         <v>9</v>
       </c>
       <c r="H428" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I428" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J428">
         <v>427</v>
@@ -15235,10 +15235,10 @@
         <v>9</v>
       </c>
       <c r="H429" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I429" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J429">
         <v>428</v>
@@ -15267,10 +15267,10 @@
         <v>9</v>
       </c>
       <c r="H430" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I430" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J430">
         <v>429</v>
@@ -15302,7 +15302,7 @@
         <v>35</v>
       </c>
       <c r="I431" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J431">
         <v>430</v>
@@ -15331,10 +15331,10 @@
         <v>9</v>
       </c>
       <c r="H432" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I432" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J432">
         <v>431</v>
@@ -15366,7 +15366,7 @@
         <v>101</v>
       </c>
       <c r="I433" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J433">
         <v>432</v>
@@ -15398,7 +15398,7 @@
         <v>84</v>
       </c>
       <c r="I434" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J434">
         <v>433</v>
@@ -15430,7 +15430,7 @@
         <v>94</v>
       </c>
       <c r="I435" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J435">
         <v>434</v>
@@ -15462,7 +15462,7 @@
         <v>38</v>
       </c>
       <c r="I436" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J436">
         <v>435</v>
@@ -15494,7 +15494,7 @@
         <v>77</v>
       </c>
       <c r="I437" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J437">
         <v>436</v>
@@ -15523,10 +15523,10 @@
         <v>9</v>
       </c>
       <c r="H438" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I438" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J438">
         <v>437</v>
@@ -15558,7 +15558,7 @@
         <v>42</v>
       </c>
       <c r="I439" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J439">
         <v>438</v>
@@ -15590,7 +15590,7 @@
         <v>59</v>
       </c>
       <c r="I440" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J440">
         <v>439</v>
@@ -15619,10 +15619,10 @@
         <v>9</v>
       </c>
       <c r="H441" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I441" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J441">
         <v>440</v>
@@ -15651,10 +15651,10 @@
         <v>9</v>
       </c>
       <c r="H442" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I442" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J442">
         <v>441</v>
@@ -15683,10 +15683,10 @@
         <v>9</v>
       </c>
       <c r="H443" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I443" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J443">
         <v>442</v>
@@ -15715,10 +15715,10 @@
         <v>9</v>
       </c>
       <c r="H444" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I444" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J444">
         <v>443</v>
@@ -15750,7 +15750,7 @@
         <v>89</v>
       </c>
       <c r="I445" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J445">
         <v>444</v>
@@ -15779,10 +15779,10 @@
         <v>9</v>
       </c>
       <c r="H446" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I446" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J446">
         <v>445</v>
@@ -15814,7 +15814,7 @@
         <v>68</v>
       </c>
       <c r="I447" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J447">
         <v>446</v>
@@ -15843,10 +15843,10 @@
         <v>9</v>
       </c>
       <c r="H448" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I448" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J448">
         <v>447</v>
@@ -15875,10 +15875,10 @@
         <v>9</v>
       </c>
       <c r="H449" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I449" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J449">
         <v>448</v>
@@ -15907,10 +15907,10 @@
         <v>9</v>
       </c>
       <c r="H450" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I450" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J450">
         <v>449</v>
@@ -15939,10 +15939,10 @@
         <v>9</v>
       </c>
       <c r="H451" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I451" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J451">
         <v>450</v>
@@ -15974,7 +15974,7 @@
         <v>19</v>
       </c>
       <c r="I452" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J452">
         <v>451</v>
@@ -16003,10 +16003,10 @@
         <v>9</v>
       </c>
       <c r="H453" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I453" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J453">
         <v>452</v>
@@ -16038,7 +16038,7 @@
         <v>95</v>
       </c>
       <c r="I454" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J454">
         <v>453</v>
@@ -16067,10 +16067,10 @@
         <v>9</v>
       </c>
       <c r="H455" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I455" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J455">
         <v>454</v>
@@ -16099,10 +16099,10 @@
         <v>9</v>
       </c>
       <c r="H456" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I456" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J456">
         <v>455</v>
@@ -16134,7 +16134,7 @@
         <v>39</v>
       </c>
       <c r="I457" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J457">
         <v>456</v>
@@ -16163,10 +16163,10 @@
         <v>9</v>
       </c>
       <c r="H458" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I458" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J458">
         <v>457</v>
@@ -16195,10 +16195,10 @@
         <v>9</v>
       </c>
       <c r="H459" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I459" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J459">
         <v>458</v>
@@ -16230,7 +16230,7 @@
         <v>98</v>
       </c>
       <c r="I460" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J460">
         <v>459</v>
@@ -16259,10 +16259,10 @@
         <v>9</v>
       </c>
       <c r="H461" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I461" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J461">
         <v>460</v>
@@ -16294,7 +16294,7 @@
         <v>16</v>
       </c>
       <c r="I462" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J462">
         <v>461</v>
@@ -16323,10 +16323,10 @@
         <v>9</v>
       </c>
       <c r="H463" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I463" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J463">
         <v>462</v>
@@ -16358,7 +16358,7 @@
         <v>71</v>
       </c>
       <c r="I464" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J464">
         <v>463</v>
@@ -16390,7 +16390,7 @@
         <v>93</v>
       </c>
       <c r="I465" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J465">
         <v>464</v>
@@ -16422,7 +16422,7 @@
         <v>29</v>
       </c>
       <c r="I466" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J466">
         <v>465</v>
@@ -16451,10 +16451,10 @@
         <v>9</v>
       </c>
       <c r="H467" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I467" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J467">
         <v>466</v>
@@ -16483,10 +16483,10 @@
         <v>9</v>
       </c>
       <c r="H468" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I468" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J468">
         <v>467</v>
@@ -16518,7 +16518,7 @@
         <v>99</v>
       </c>
       <c r="I469" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J469">
         <v>468</v>
@@ -16547,10 +16547,10 @@
         <v>9</v>
       </c>
       <c r="H470" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I470" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J470">
         <v>469</v>
@@ -16579,10 +16579,10 @@
         <v>9</v>
       </c>
       <c r="H471" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I471" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J471">
         <v>470</v>
@@ -16614,7 +16614,7 @@
         <v>88</v>
       </c>
       <c r="I472" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J472">
         <v>471</v>
@@ -16646,7 +16646,7 @@
         <v>91</v>
       </c>
       <c r="I473" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J473">
         <v>472</v>
@@ -16675,10 +16675,10 @@
         <v>9</v>
       </c>
       <c r="H474" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I474" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J474">
         <v>473</v>
@@ -16710,7 +16710,7 @@
         <v>45</v>
       </c>
       <c r="I475" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J475">
         <v>474</v>
@@ -16739,10 +16739,10 @@
         <v>9</v>
       </c>
       <c r="H476" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I476" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J476">
         <v>475</v>
@@ -16774,7 +16774,7 @@
         <v>33</v>
       </c>
       <c r="I477" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J477">
         <v>476</v>
@@ -16803,10 +16803,10 @@
         <v>9</v>
       </c>
       <c r="H478" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I478" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J478">
         <v>477</v>
@@ -16835,10 +16835,10 @@
         <v>9</v>
       </c>
       <c r="H479" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I479" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J479">
         <v>478</v>
@@ -16870,7 +16870,7 @@
         <v>46</v>
       </c>
       <c r="I480" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J480">
         <v>479</v>
@@ -16902,7 +16902,7 @@
         <v>47</v>
       </c>
       <c r="I481" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J481">
         <v>480</v>
@@ -16934,7 +16934,7 @@
         <v>26</v>
       </c>
       <c r="I482" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J482">
         <v>481</v>
@@ -16966,7 +16966,7 @@
         <v>60</v>
       </c>
       <c r="I483" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J483">
         <v>482</v>
@@ -16998,7 +16998,7 @@
         <v>17</v>
       </c>
       <c r="I484" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J484">
         <v>483</v>
@@ -17027,10 +17027,10 @@
         <v>9</v>
       </c>
       <c r="H485" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I485" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J485">
         <v>484</v>
@@ -17059,10 +17059,10 @@
         <v>9</v>
       </c>
       <c r="H486" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I486" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J486">
         <v>485</v>
@@ -17094,7 +17094,7 @@
         <v>40</v>
       </c>
       <c r="I487" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J487">
         <v>486</v>
@@ -17123,10 +17123,10 @@
         <v>9</v>
       </c>
       <c r="H488" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I488" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J488">
         <v>487</v>
@@ -17158,7 +17158,7 @@
         <v>102</v>
       </c>
       <c r="I489" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J489">
         <v>488</v>
@@ -17187,10 +17187,10 @@
         <v>9</v>
       </c>
       <c r="H490" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I490" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J490">
         <v>489</v>
@@ -17219,10 +17219,10 @@
         <v>9</v>
       </c>
       <c r="H491" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I491" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J491">
         <v>490</v>
@@ -17251,10 +17251,10 @@
         <v>9</v>
       </c>
       <c r="H492" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I492" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J492">
         <v>491</v>
@@ -17286,7 +17286,7 @@
         <v>76</v>
       </c>
       <c r="I493" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J493">
         <v>492</v>
@@ -17315,10 +17315,10 @@
         <v>9</v>
       </c>
       <c r="H494" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I494" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J494">
         <v>493</v>
@@ -17347,10 +17347,10 @@
         <v>9</v>
       </c>
       <c r="H495" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I495" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J495">
         <v>494</v>
@@ -17379,10 +17379,10 @@
         <v>9</v>
       </c>
       <c r="H496" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I496" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J496">
         <v>495</v>
@@ -17411,10 +17411,10 @@
         <v>9</v>
       </c>
       <c r="H497" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I497" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J497">
         <v>496</v>
@@ -17446,7 +17446,7 @@
         <v>97</v>
       </c>
       <c r="I498" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J498">
         <v>497</v>
@@ -17478,7 +17478,7 @@
         <v>31</v>
       </c>
       <c r="I499" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J499">
         <v>498</v>
@@ -17507,10 +17507,10 @@
         <v>9</v>
       </c>
       <c r="H500" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I500" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J500">
         <v>499</v>
@@ -17542,7 +17542,7 @@
         <v>23</v>
       </c>
       <c r="I501" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J501">
         <v>500</v>
@@ -17574,7 +17574,7 @@
         <v>100</v>
       </c>
       <c r="I502" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J502">
         <v>501</v>
@@ -17606,7 +17606,7 @@
         <v>44</v>
       </c>
       <c r="I503" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J503">
         <v>502</v>
@@ -17617,7 +17617,7 @@
         <v>11</v>
       </c>
       <c r="B504">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C504">
         <v>3</v>
@@ -17635,10 +17635,10 @@
         <v>9</v>
       </c>
       <c r="H504" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="I504" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J504">
         <v>503</v>
@@ -17667,10 +17667,10 @@
         <v>9</v>
       </c>
       <c r="H505" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I505" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J505">
         <v>504</v>
@@ -17699,10 +17699,10 @@
         <v>9</v>
       </c>
       <c r="H506" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I506" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J506">
         <v>505</v>
@@ -17731,10 +17731,10 @@
         <v>9</v>
       </c>
       <c r="H507" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I507" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J507">
         <v>506</v>
@@ -17763,10 +17763,10 @@
         <v>9</v>
       </c>
       <c r="H508" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I508" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J508">
         <v>507</v>
@@ -17798,7 +17798,7 @@
         <v>103</v>
       </c>
       <c r="I509" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J509">
         <v>508</v>
@@ -17830,7 +17830,7 @@
         <v>32</v>
       </c>
       <c r="I510" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J510">
         <v>509</v>
@@ -17859,10 +17859,10 @@
         <v>9</v>
       </c>
       <c r="H511" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I511" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J511">
         <v>510</v>
@@ -17891,10 +17891,10 @@
         <v>9</v>
       </c>
       <c r="H512" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I512" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J512">
         <v>511</v>
@@ -17926,7 +17926,7 @@
         <v>65</v>
       </c>
       <c r="I513" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J513">
         <v>512</v>
@@ -17955,10 +17955,10 @@
         <v>9</v>
       </c>
       <c r="H514" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I514" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J514">
         <v>513</v>
@@ -17990,7 +17990,7 @@
         <v>22</v>
       </c>
       <c r="I515" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J515">
         <v>514</v>
@@ -18022,7 +18022,7 @@
         <v>57</v>
       </c>
       <c r="I516" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J516">
         <v>515</v>
@@ -18054,7 +18054,7 @@
         <v>75</v>
       </c>
       <c r="I517" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J517">
         <v>516</v>
@@ -18083,10 +18083,10 @@
         <v>9</v>
       </c>
       <c r="H518" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I518" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J518">
         <v>517</v>
@@ -18118,7 +18118,7 @@
         <v>20</v>
       </c>
       <c r="I519" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J519">
         <v>518</v>
@@ -18150,7 +18150,7 @@
         <v>64</v>
       </c>
       <c r="I520" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J520">
         <v>519</v>
@@ -18182,7 +18182,7 @@
         <v>85</v>
       </c>
       <c r="I521" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J521">
         <v>520</v>
@@ -18211,10 +18211,10 @@
         <v>9</v>
       </c>
       <c r="H522" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I522" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J522">
         <v>521</v>
@@ -18243,10 +18243,10 @@
         <v>9</v>
       </c>
       <c r="H523" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I523" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J523">
         <v>522</v>
@@ -18275,10 +18275,10 @@
         <v>9</v>
       </c>
       <c r="H524" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I524" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J524">
         <v>523</v>
@@ -18310,7 +18310,7 @@
         <v>18</v>
       </c>
       <c r="I525" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J525">
         <v>524</v>
@@ -18339,10 +18339,10 @@
         <v>9</v>
       </c>
       <c r="H526" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I526" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J526">
         <v>525</v>
@@ -18374,7 +18374,7 @@
         <v>25</v>
       </c>
       <c r="I527" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J527">
         <v>526</v>
@@ -18403,10 +18403,10 @@
         <v>9</v>
       </c>
       <c r="H528" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I528" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J528">
         <v>527</v>
@@ -18435,10 +18435,10 @@
         <v>9</v>
       </c>
       <c r="H529" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I529" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J529">
         <v>528</v>
@@ -18470,7 +18470,7 @@
         <v>81</v>
       </c>
       <c r="I530" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J530">
         <v>529</v>
@@ -18499,10 +18499,10 @@
         <v>9</v>
       </c>
       <c r="H531" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I531" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J531">
         <v>530</v>
@@ -18531,10 +18531,10 @@
         <v>9</v>
       </c>
       <c r="H532" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I532" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J532">
         <v>531</v>
@@ -18566,7 +18566,7 @@
         <v>41</v>
       </c>
       <c r="I533" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J533">
         <v>532</v>
@@ -18595,10 +18595,10 @@
         <v>9</v>
       </c>
       <c r="H534" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I534" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J534">
         <v>533</v>
@@ -18627,10 +18627,10 @@
         <v>9</v>
       </c>
       <c r="H535" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I535" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J535">
         <v>534</v>
@@ -18659,10 +18659,10 @@
         <v>9</v>
       </c>
       <c r="H536" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I536" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J536">
         <v>535</v>
@@ -18691,10 +18691,10 @@
         <v>9</v>
       </c>
       <c r="H537" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I537" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J537">
         <v>536</v>
@@ -18726,7 +18726,7 @@
         <v>66</v>
       </c>
       <c r="I538" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J538">
         <v>537</v>
@@ -18755,10 +18755,10 @@
         <v>9</v>
       </c>
       <c r="H539" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I539" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J539">
         <v>538</v>
@@ -18787,10 +18787,10 @@
         <v>9</v>
       </c>
       <c r="H540" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I540" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J540">
         <v>539</v>
@@ -18819,10 +18819,10 @@
         <v>9</v>
       </c>
       <c r="H541" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I541" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J541">
         <v>540</v>
@@ -18854,7 +18854,7 @@
         <v>51</v>
       </c>
       <c r="I542" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J542">
         <v>541</v>
@@ -18886,7 +18886,7 @@
         <v>37</v>
       </c>
       <c r="I543" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J543">
         <v>542</v>
@@ -18915,10 +18915,10 @@
         <v>9</v>
       </c>
       <c r="H544" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I544" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J544">
         <v>543</v>
@@ -18947,10 +18947,10 @@
         <v>9</v>
       </c>
       <c r="H545" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I545" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J545">
         <v>544</v>
@@ -18982,7 +18982,7 @@
         <v>24</v>
       </c>
       <c r="I546" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J546">
         <v>545</v>
@@ -19014,7 +19014,7 @@
         <v>50</v>
       </c>
       <c r="I547" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J547">
         <v>546</v>
@@ -19043,10 +19043,10 @@
         <v>9</v>
       </c>
       <c r="H548" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I548" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J548">
         <v>547</v>
@@ -19078,7 +19078,7 @@
         <v>86</v>
       </c>
       <c r="I549" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J549">
         <v>548</v>
@@ -19110,7 +19110,7 @@
         <v>90</v>
       </c>
       <c r="I550" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J550">
         <v>549</v>
@@ -19142,7 +19142,7 @@
         <v>96</v>
       </c>
       <c r="I551" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J551">
         <v>550</v>
@@ -19174,7 +19174,7 @@
         <v>74</v>
       </c>
       <c r="I552" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J552">
         <v>551</v>
@@ -19206,7 +19206,7 @@
         <v>53</v>
       </c>
       <c r="I553" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J553">
         <v>552</v>
@@ -19235,10 +19235,10 @@
         <v>9</v>
       </c>
       <c r="H554" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I554" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J554">
         <v>553</v>
@@ -19270,7 +19270,7 @@
         <v>34</v>
       </c>
       <c r="I555" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J555">
         <v>554</v>
@@ -19299,10 +19299,10 @@
         <v>9</v>
       </c>
       <c r="H556" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I556" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J556">
         <v>555</v>
@@ -19334,7 +19334,7 @@
         <v>30</v>
       </c>
       <c r="I557" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J557">
         <v>556</v>
@@ -19363,10 +19363,10 @@
         <v>9</v>
       </c>
       <c r="H558" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I558" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J558">
         <v>557</v>
@@ -19395,10 +19395,10 @@
         <v>9</v>
       </c>
       <c r="H559" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I559" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J559">
         <v>558</v>
@@ -19427,10 +19427,10 @@
         <v>9</v>
       </c>
       <c r="H560" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I560" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J560">
         <v>559</v>
@@ -19462,7 +19462,7 @@
         <v>82</v>
       </c>
       <c r="I561" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J561">
         <v>560</v>
@@ -19491,10 +19491,10 @@
         <v>9</v>
       </c>
       <c r="H562" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I562" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J562">
         <v>561</v>
@@ -19526,7 +19526,7 @@
         <v>72</v>
       </c>
       <c r="I563" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J563">
         <v>562</v>
@@ -19555,10 +19555,10 @@
         <v>9</v>
       </c>
       <c r="H564" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I564" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J564">
         <v>563</v>
@@ -19590,7 +19590,7 @@
         <v>61</v>
       </c>
       <c r="I565" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J565">
         <v>564</v>
@@ -19622,7 +19622,7 @@
         <v>80</v>
       </c>
       <c r="I566" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J566">
         <v>565</v>
@@ -19651,10 +19651,10 @@
         <v>9</v>
       </c>
       <c r="H567" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I567" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J567">
         <v>566</v>
@@ -19683,10 +19683,10 @@
         <v>9</v>
       </c>
       <c r="H568" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I568" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J568">
         <v>567</v>
@@ -19718,7 +19718,7 @@
         <v>48</v>
       </c>
       <c r="I569" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J569">
         <v>568</v>
@@ -19747,10 +19747,10 @@
         <v>9</v>
       </c>
       <c r="H570" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I570" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J570">
         <v>569</v>
@@ -19782,7 +19782,7 @@
         <v>63</v>
       </c>
       <c r="I571" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J571">
         <v>570</v>
@@ -19811,10 +19811,10 @@
         <v>9</v>
       </c>
       <c r="H572" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I572" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J572">
         <v>571</v>
@@ -19846,7 +19846,7 @@
         <v>92</v>
       </c>
       <c r="I573" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J573">
         <v>572</v>
@@ -19878,7 +19878,7 @@
         <v>52</v>
       </c>
       <c r="I574" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J574">
         <v>573</v>
@@ -19910,7 +19910,7 @@
         <v>36</v>
       </c>
       <c r="I575" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J575">
         <v>574</v>
@@ -19942,7 +19942,7 @@
         <v>106</v>
       </c>
       <c r="I576" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J576">
         <v>575</v>
@@ -19974,7 +19974,7 @@
         <v>27</v>
       </c>
       <c r="I577" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J577">
         <v>576</v>
@@ -20003,10 +20003,10 @@
         <v>9</v>
       </c>
       <c r="H578" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I578" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J578">
         <v>577</v>
@@ -20038,7 +20038,7 @@
         <v>54</v>
       </c>
       <c r="I579" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J579">
         <v>578</v>
@@ -20070,7 +20070,7 @@
         <v>49</v>
       </c>
       <c r="I580" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J580">
         <v>579</v>
@@ -20099,10 +20099,10 @@
         <v>9</v>
       </c>
       <c r="H581" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I581" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J581">
         <v>580</v>
@@ -20131,10 +20131,10 @@
         <v>9</v>
       </c>
       <c r="H582" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I582" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J582">
         <v>581</v>
@@ -20166,7 +20166,7 @@
         <v>21</v>
       </c>
       <c r="I583" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J583">
         <v>582</v>
@@ -20198,7 +20198,7 @@
         <v>55</v>
       </c>
       <c r="I584" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J584">
         <v>583</v>
@@ -20227,10 +20227,10 @@
         <v>9</v>
       </c>
       <c r="H585" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I585" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J585">
         <v>584</v>
@@ -20262,7 +20262,7 @@
         <v>73</v>
       </c>
       <c r="I586" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J586">
         <v>585</v>
@@ -20294,7 +20294,7 @@
         <v>78</v>
       </c>
       <c r="I587" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J587">
         <v>586</v>
@@ -20323,10 +20323,10 @@
         <v>9</v>
       </c>
       <c r="H588" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I588" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J588">
         <v>587</v>
@@ -20358,7 +20358,7 @@
         <v>79</v>
       </c>
       <c r="I589" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J589">
         <v>588</v>
